--- a/data/trans_orig/IMC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3645,7 +3645,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6736,7 +6736,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9835,7 +9835,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7051</v>
+        <v>6901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20912</v>
+        <v>20627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02674746914736807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01446948272476855</v>
+        <v>0.01416049897877515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04291288471011535</v>
+        <v>0.04232790246202844</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>12063</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6554</v>
+        <v>6208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20865</v>
+        <v>20039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02590946761180031</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01407622544508414</v>
+        <v>0.0133341579730948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04481378170412877</v>
+        <v>0.04304123092847513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>25097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16552</v>
+        <v>16768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35822</v>
+        <v>35649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02633801946513419</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01736974902102375</v>
+        <v>0.01759647622606862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03759295405454307</v>
+        <v>0.03741117242995007</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>122483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105546</v>
+        <v>105642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143112</v>
+        <v>142437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2513453151672601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2165897363578445</v>
+        <v>0.2167859759900472</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2936793589249899</v>
+        <v>0.2922926995819608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -836,19 +836,19 @@
         <v>53640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41885</v>
+        <v>42340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68653</v>
+        <v>69132</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1152097983867753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08996158813008186</v>
+        <v>0.09093873537698116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1474556479211881</v>
+        <v>0.1484830188681676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -857,19 +857,19 @@
         <v>176123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155737</v>
+        <v>154299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202948</v>
+        <v>202119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1848291553266339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1634350936909492</v>
+        <v>0.1619266865743233</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2129801920196506</v>
+        <v>0.2121099952458411</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>344421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>323216</v>
+        <v>323000</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>362600</v>
+        <v>362890</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.706782066866941</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6632675695293427</v>
+        <v>0.6628253500837186</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7440872639962754</v>
+        <v>0.7446830141999005</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>373</v>
@@ -907,19 +907,19 @@
         <v>358177</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>339749</v>
+        <v>340176</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>376263</v>
+        <v>374244</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7693024965165556</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7297212310530781</v>
+        <v>0.7306394597834287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8081477054566579</v>
+        <v>0.8038114136377492</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>717</v>
@@ -928,19 +928,19 @@
         <v>702599</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>675240</v>
+        <v>677133</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>727863</v>
+        <v>728215</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7373297078516523</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7086183064668725</v>
+        <v>0.7106055031464625</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7638431231430619</v>
+        <v>0.7642125600994322</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>7371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3498</v>
+        <v>3582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14103</v>
+        <v>13499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01512514881843077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007177518717437837</v>
+        <v>0.007349648046428529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02894128662591047</v>
+        <v>0.02770205739099264</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -978,19 +978,19 @@
         <v>41706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30614</v>
+        <v>30148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55873</v>
+        <v>53885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08957823748486891</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06575376169445432</v>
+        <v>0.06475224844587101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.120006415326827</v>
+        <v>0.1157364002317593</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -999,19 +999,19 @@
         <v>49077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36778</v>
+        <v>36468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64345</v>
+        <v>64206</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05150311735657966</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03859629025695935</v>
+        <v>0.03827053646055905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06752609234621038</v>
+        <v>0.06738017793502427</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>46647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35244</v>
+        <v>35551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62695</v>
+        <v>62947</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06388796277399063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04827030969080804</v>
+        <v>0.04869143379387519</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08586772557007233</v>
+        <v>0.0862134803303151</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -1124,19 +1124,19 @@
         <v>45154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32994</v>
+        <v>33629</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59784</v>
+        <v>59382</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07265588822092746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05308865783609587</v>
+        <v>0.05411101030510315</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09619630632715546</v>
+        <v>0.09554902128810455</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>88</v>
@@ -1145,19 +1145,19 @@
         <v>91801</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>74789</v>
+        <v>74403</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112105</v>
+        <v>111111</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06791952915815082</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05533298073809476</v>
+        <v>0.05504752189773999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08294152870830267</v>
+        <v>0.08220591936621259</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>289983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263276</v>
+        <v>263712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>318572</v>
+        <v>318146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.397166452068449</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3605876439567299</v>
+        <v>0.3611847032773372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.436321923594352</v>
+        <v>0.4357384075583535</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1195,19 +1195,19 @@
         <v>122878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103939</v>
+        <v>105834</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146336</v>
+        <v>144628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1977171145618019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.167243319517017</v>
+        <v>0.1702926919253798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2354629500347895</v>
+        <v>0.2327144454106592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>396</v>
@@ -1216,19 +1216,19 @@
         <v>412861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>377472</v>
+        <v>377245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>444044</v>
+        <v>451078</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3054579573622426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2792750545027649</v>
+        <v>0.2791076765498678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3285294639396622</v>
+        <v>0.3337329877023585</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>390701</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>360260</v>
+        <v>360242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>416734</v>
+        <v>416502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5351122153229623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4934186539961569</v>
+        <v>0.4933949428772846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5707667289117752</v>
+        <v>0.570449370615096</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>410</v>
@@ -1266,19 +1266,19 @@
         <v>434616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>411775</v>
+        <v>409720</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457443</v>
+        <v>456233</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6993204253666206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.662568296912164</v>
+        <v>0.6592621978319223</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7360499661811669</v>
+        <v>0.7341044810509836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>781</v>
@@ -1287,19 +1287,19 @@
         <v>825317</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>789622</v>
+        <v>789092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>861529</v>
+        <v>860461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6106165411320293</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5842075765749566</v>
+        <v>0.5838154213904636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6374083560541751</v>
+        <v>0.6366186183600314</v>
       </c>
     </row>
     <row r="12">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10589</v>
+        <v>9917</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003833369834598051</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01450291511186211</v>
+        <v>0.01358295083698538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1337,19 +1337,19 @@
         <v>18835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11648</v>
+        <v>11489</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29323</v>
+        <v>29829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03030657185065001</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01874196343049148</v>
+        <v>0.01848673147622381</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04718289248885182</v>
+        <v>0.04799642599672264</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1358,19 +1358,19 @@
         <v>21634</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13227</v>
+        <v>13502</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32394</v>
+        <v>32907</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01600597234757717</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009785810106069623</v>
+        <v>0.009989295578291858</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02396684148699989</v>
+        <v>0.02434674013227068</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>82236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66751</v>
+        <v>67392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99186</v>
+        <v>102085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1292957137146641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1049496360301096</v>
+        <v>0.1059567108198913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1559446251114701</v>
+        <v>0.1605032922284948</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>67</v>
@@ -1483,19 +1483,19 @@
         <v>72663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57796</v>
+        <v>57388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90697</v>
+        <v>90386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1057915176291232</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08414652909856826</v>
+        <v>0.08355139995321891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1320472833562942</v>
+        <v>0.1315942749311058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -1504,19 +1504,19 @@
         <v>154900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132829</v>
+        <v>134178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>180337</v>
+        <v>181025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1170921226169322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1004083286278966</v>
+        <v>0.1014279954773585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1363204726141346</v>
+        <v>0.136840636612794</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>330881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>305753</v>
+        <v>305722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>357132</v>
+        <v>359035</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.520226094445579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4807190531068853</v>
+        <v>0.4806701945434169</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5614987057593752</v>
+        <v>0.5644910219808423</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>188</v>
@@ -1554,19 +1554,19 @@
         <v>196869</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175511</v>
+        <v>173636</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>222564</v>
+        <v>221994</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2866230983642062</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2555285611355529</v>
+        <v>0.2527979500097934</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3240328185395133</v>
+        <v>0.3232032517856615</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>506</v>
@@ -1575,19 +1575,19 @@
         <v>527749</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>493401</v>
+        <v>490321</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>566948</v>
+        <v>564728</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3989373069879271</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3729729093230369</v>
+        <v>0.3706442958654626</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4285680845795196</v>
+        <v>0.4268898864950242</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>221930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>197217</v>
+        <v>199046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>245455</v>
+        <v>247905</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3489283300381626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3100735993466073</v>
+        <v>0.312948867802685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3859155624678716</v>
+        <v>0.3897680451598927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>383</v>
@@ -1625,19 +1625,19 @@
         <v>398711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>371609</v>
+        <v>372895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>422467</v>
+        <v>425822</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5804875389924865</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5410293935501813</v>
+        <v>0.542901606372196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6150739519858121</v>
+        <v>0.6199593213301053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>595</v>
@@ -1646,19 +1646,19 @@
         <v>620641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>582898</v>
+        <v>583581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>655718</v>
+        <v>655916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4691559647425555</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4406253018130646</v>
+        <v>0.4411418068947025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4956717044064193</v>
+        <v>0.4958212808257368</v>
       </c>
     </row>
     <row r="17">
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4980</v>
+        <v>5670</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001549861801594266</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.007830466161347128</v>
+        <v>0.008915346967316714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1696,19 +1696,19 @@
         <v>18612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11313</v>
+        <v>10529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28245</v>
+        <v>29201</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02709784501418404</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01647057941665015</v>
+        <v>0.01532973540983041</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04112232371035084</v>
+        <v>0.04251457822018483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1717,19 +1717,19 @@
         <v>19598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11786</v>
+        <v>11909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29494</v>
+        <v>30606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01481460565258525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008909346115828278</v>
+        <v>0.009002091121238485</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02229544666153462</v>
+        <v>0.02313598027347885</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>76039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60385</v>
+        <v>60290</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93260</v>
+        <v>98492</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1472877396009682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1169661686870196</v>
+        <v>0.1167809981732156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1806451537436128</v>
+        <v>0.1907781015809209</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -1842,19 +1842,19 @@
         <v>74387</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59983</v>
+        <v>60720</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90223</v>
+        <v>92067</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.146513248335628</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1181426810377399</v>
+        <v>0.1195949778215507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1777054704683781</v>
+        <v>0.1813357848907517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -1863,19 +1863,19 @@
         <v>150426</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129037</v>
+        <v>128940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172761</v>
+        <v>178119</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1469037274606952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1260153102319908</v>
+        <v>0.1259208254360074</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1687154826571909</v>
+        <v>0.1739486419730016</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>293275</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270633</v>
+        <v>267176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316233</v>
+        <v>316296</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5680726181440874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5242152073965242</v>
+        <v>0.5175188397063466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6125416569816088</v>
+        <v>0.6126653445767164</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -1913,19 +1913,19 @@
         <v>207994</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187441</v>
+        <v>186823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229324</v>
+        <v>231149</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4096681450671442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3691878973256679</v>
+        <v>0.3679693143812741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4516812097668273</v>
+        <v>0.4552750049690003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>488</v>
@@ -1934,19 +1934,19 @@
         <v>501269</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>468241</v>
+        <v>465986</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>534262</v>
+        <v>528704</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4895317185144696</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4572764378623058</v>
+        <v>0.4550750716314371</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5217516409793573</v>
+        <v>0.5163245052653936</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>143467</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>121957</v>
+        <v>122931</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>165142</v>
+        <v>165306</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.277894551008108</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2362308777788789</v>
+        <v>0.2381175455839891</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3198794063710785</v>
+        <v>0.3201976037327109</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>210</v>
@@ -1984,19 +1984,19 @@
         <v>218645</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>197750</v>
+        <v>195430</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>239743</v>
+        <v>239818</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.430647442394708</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3894909163094473</v>
+        <v>0.3849224742842722</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.47220175981931</v>
+        <v>0.4723487052663352</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>338</v>
@@ -2005,19 +2005,19 @@
         <v>362112</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>332172</v>
+        <v>332944</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>394342</v>
+        <v>396056</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3536332550830951</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3243935624049729</v>
+        <v>0.3251480516241252</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3851078219635528</v>
+        <v>0.3867816382216903</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>3482</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10470</v>
+        <v>10194</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006745091246836436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001624197433752917</v>
+        <v>0.001630073373934357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02028096181396026</v>
+        <v>0.01974598596789072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6687</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2451</v>
+        <v>2884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13806</v>
+        <v>14618</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01317116420251982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004827935981990827</v>
+        <v>0.005680511982141778</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02719160038406808</v>
+        <v>0.02879254755976624</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2076,19 +2076,19 @@
         <v>10169</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4830</v>
+        <v>4549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17933</v>
+        <v>17914</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009931298941740186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004717334302778706</v>
+        <v>0.004442751507033867</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01751300174050537</v>
+        <v>0.01749443262242277</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>84141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>69586</v>
+        <v>69626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>101614</v>
+        <v>100950</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2191815046121144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1812678264139688</v>
+        <v>0.1813715283103093</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2646974656639612</v>
+        <v>0.2629682424650135</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>87</v>
@@ -2201,19 +2201,19 @@
         <v>88060</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>73690</v>
+        <v>72991</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>105187</v>
+        <v>104329</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.222950218465526</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1865682449815671</v>
+        <v>0.1847966132558889</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2663119506799671</v>
+        <v>0.2641386103940928</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>174</v>
@@ -2222,19 +2222,19 @@
         <v>172201</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>148488</v>
+        <v>152557</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>196558</v>
+        <v>199500</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2210926986849856</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1906464992792045</v>
+        <v>0.1958711603130566</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2523653441687604</v>
+        <v>0.2561429049939472</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>214074</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>193099</v>
+        <v>194760</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>231993</v>
+        <v>233055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5576504422462852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5030101596538469</v>
+        <v>0.5073378393383271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6043269501995172</v>
+        <v>0.6070939182784706</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>181</v>
@@ -2272,19 +2272,19 @@
         <v>183284</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>164056</v>
+        <v>163295</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>201182</v>
+        <v>203487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4640351184172068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4153544189012324</v>
+        <v>0.4134291025285859</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5093497876216704</v>
+        <v>0.5151861838805155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>396</v>
@@ -2293,19 +2293,19 @@
         <v>397358</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>372206</v>
+        <v>369315</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>425285</v>
+        <v>424467</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5101761422619318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4778832435298725</v>
+        <v>0.4741710055130791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5460328761075088</v>
+        <v>0.5449815878017659</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>85671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70360</v>
+        <v>71027</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101844</v>
+        <v>104505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2231680531416005</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1832838890010037</v>
+        <v>0.1850200582874122</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2652965723678414</v>
+        <v>0.2722288966531221</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>119</v>
@@ -2343,19 +2343,19 @@
         <v>123634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105442</v>
+        <v>106434</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144654</v>
+        <v>143045</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3130146631172672</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2669570488131042</v>
+        <v>0.269469107575134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3662343201873156</v>
+        <v>0.3621581844621789</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>206</v>
@@ -2364,19 +2364,19 @@
         <v>209305</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187319</v>
+        <v>184274</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>235680</v>
+        <v>235089</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2687311590530826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2405034579178897</v>
+        <v>0.2365934476891143</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3025948390601644</v>
+        <v>0.3018357484791976</v>
       </c>
     </row>
     <row r="27">
@@ -2515,19 +2515,19 @@
         <v>49018</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37404</v>
+        <v>36255</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62125</v>
+        <v>62023</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1707175953441891</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1302698837361746</v>
+        <v>0.126268249869826</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2163657743004941</v>
+        <v>0.2160094062888318</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>116</v>
@@ -2536,19 +2536,19 @@
         <v>107241</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>91501</v>
+        <v>92031</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123492</v>
+        <v>123702</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3157562619842344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2694129807198657</v>
+        <v>0.2709739958145816</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3636076305181186</v>
+        <v>0.3642240616694808</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>165</v>
@@ -2557,19 +2557,19 @@
         <v>156259</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>134713</v>
+        <v>135305</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>177855</v>
+        <v>177865</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.249311503305033</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2149355545450177</v>
+        <v>0.2158803158972213</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.283767976642648</v>
+        <v>0.2837836280575194</v>
       </c>
     </row>
     <row r="30">
@@ -2586,19 +2586,19 @@
         <v>167817</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>151631</v>
+        <v>151422</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>183557</v>
+        <v>183329</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5844651887066846</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5280904223288619</v>
+        <v>0.5273629294960436</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6392819436515551</v>
+        <v>0.6384870700448119</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>173</v>
@@ -2607,19 +2607,19 @@
         <v>159055</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>142216</v>
+        <v>142075</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>176144</v>
+        <v>176155</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4683167256433631</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4187373870055137</v>
+        <v>0.4183229365939363</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5186341807261141</v>
+        <v>0.5186646126236151</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>349</v>
@@ -2628,19 +2628,19 @@
         <v>326872</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>305063</v>
+        <v>302952</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>351677</v>
+        <v>349890</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.521526375028486</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4867290321957275</v>
+        <v>0.4833615320362514</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.561101766692356</v>
+        <v>0.5582504842888821</v>
       </c>
     </row>
     <row r="31">
@@ -2657,19 +2657,19 @@
         <v>69330</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>54296</v>
+        <v>56037</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>85094</v>
+        <v>83237</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2414572191152923</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1890991949925396</v>
+        <v>0.1951637225208967</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2963603854744822</v>
+        <v>0.2898944782892469</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>78</v>
@@ -2678,19 +2678,19 @@
         <v>72437</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>59842</v>
+        <v>58403</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>86433</v>
+        <v>88027</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2132801099931092</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1761969990191427</v>
+        <v>0.1719604839199434</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2544901086621054</v>
+        <v>0.2591853314686828</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>149</v>
@@ -2699,19 +2699,19 @@
         <v>141766</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>123634</v>
+        <v>122051</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>162701</v>
+        <v>162073</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2261885382024462</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1972578380222733</v>
+        <v>0.194733676774292</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2595903431045103</v>
+        <v>0.2585883360849005</v>
       </c>
     </row>
     <row r="32">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5575</v>
+        <v>5212</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003359996833833988</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0194162136364007</v>
+        <v>0.01815268148547306</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4909</v>
+        <v>4520</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002646902379293303</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01445530864598897</v>
+        <v>0.01330825909817463</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6458</v>
+        <v>5751</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002973583464034815</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01030362455408975</v>
+        <v>0.00917502707688026</v>
       </c>
     </row>
     <row r="33">
@@ -2874,19 +2874,19 @@
         <v>44337</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>33086</v>
+        <v>32533</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>56517</v>
+        <v>56862</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2180540834592469</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1627202419931379</v>
+        <v>0.1600022789710663</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2779573216443929</v>
+        <v>0.2796529989360918</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>84</v>
@@ -2895,19 +2895,19 @@
         <v>97742</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>81991</v>
+        <v>80810</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>114551</v>
+        <v>115703</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3085962348947757</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2588654908614496</v>
+        <v>0.255136865793801</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3616650719062407</v>
+        <v>0.36530272397051</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>127</v>
@@ -2916,19 +2916,19 @@
         <v>142079</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>122145</v>
+        <v>123196</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>163329</v>
+        <v>164419</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2731967449197245</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2348680077011891</v>
+        <v>0.2368887028652614</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3140583654655075</v>
+        <v>0.3161545586714939</v>
       </c>
     </row>
     <row r="35">
@@ -2945,19 +2945,19 @@
         <v>110580</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>96887</v>
+        <v>95239</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>125278</v>
+        <v>124156</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5438475713346956</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4765038471237282</v>
+        <v>0.4683984263599844</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6161323170166288</v>
+        <v>0.6106180221411508</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>135</v>
@@ -2966,19 +2966,19 @@
         <v>154013</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>134106</v>
+        <v>133767</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>172305</v>
+        <v>172565</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4862569004948356</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4234058933072317</v>
+        <v>0.422336589234643</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5440101497930785</v>
+        <v>0.5448306687899577</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -2987,19 +2987,19 @@
         <v>264593</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>240691</v>
+        <v>242167</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>286789</v>
+        <v>288086</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5087732682056665</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4628142876279669</v>
+        <v>0.4656514726921324</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5514534504094104</v>
+        <v>0.5539485333794197</v>
       </c>
     </row>
     <row r="36">
@@ -3016,19 +3016,19 @@
         <v>45680</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34745</v>
+        <v>35302</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>58388</v>
+        <v>58297</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2246603516179191</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1708786270049353</v>
+        <v>0.1736205768157453</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2871617820351757</v>
+        <v>0.2867141134771005</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>55</v>
@@ -3037,19 +3037,19 @@
         <v>64055</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>49301</v>
+        <v>50839</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>79480</v>
+        <v>81221</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2022379817092647</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1556563350245721</v>
+        <v>0.1605109278661405</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2509398854902961</v>
+        <v>0.256436645045306</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>102</v>
@@ -3058,19 +3058,19 @@
         <v>109735</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>91701</v>
+        <v>91920</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>129127</v>
+        <v>130542</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2110045113997314</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1763276673332619</v>
+        <v>0.1767480828941416</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2482919839989788</v>
+        <v>0.2510133551005059</v>
       </c>
     </row>
     <row r="37">
@@ -3087,19 +3087,19 @@
         <v>2732</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7364</v>
+        <v>7191</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01343799358813837</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004249141375717297</v>
+        <v>0.004241516047545366</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03621532372048462</v>
+        <v>0.03536498133187253</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5624</v>
+        <v>4628</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002908882901124061</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01775722254696778</v>
+        <v>0.01461204868555421</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3129,19 +3129,19 @@
         <v>3654</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9196</v>
+        <v>9106</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.007025475474877609</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.00182500634294939</v>
+        <v>0.001762927634684371</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01768201668040516</v>
+        <v>0.01750866303466449</v>
       </c>
     </row>
     <row r="38">
@@ -3233,19 +3233,19 @@
         <v>395452</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>483</v>
@@ -3254,19 +3254,19 @@
         <v>497311</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>868</v>
@@ -3275,19 +3275,19 @@
         <v>892762</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="40">
@@ -3304,19 +3304,19 @@
         <v>1529093</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1466551</v>
+        <v>1466248</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1587582</v>
+        <v>1586094</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4713489369566074</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4520699353993372</v>
+        <v>0.451976671560486</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.489378338754563</v>
+        <v>0.4889196972199787</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1057</v>
@@ -3325,19 +3325,19 @@
         <v>1077731</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1024412</v>
+        <v>1026444</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1132091</v>
+        <v>1132489</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3233539133949597</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.307356491516477</v>
+        <v>0.3079659965077042</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3396634355430825</v>
+        <v>0.3397829130045206</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2576</v>
@@ -3346,19 +3346,19 @@
         <v>2606825</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2531897</v>
+        <v>2535902</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2684381</v>
+        <v>2686796</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3963512288616592</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3849589902093436</v>
+        <v>0.3855679571360917</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4081432497550395</v>
+        <v>0.408510348314078</v>
       </c>
     </row>
     <row r="41">
@@ -3375,19 +3375,19 @@
         <v>1301199</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1248469</v>
+        <v>1242758</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1359094</v>
+        <v>1356148</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4010997776678299</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3848453981123178</v>
+        <v>0.3830851088805634</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4189460238900457</v>
+        <v>0.4180377545733023</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1628</v>
@@ -3396,19 +3396,19 @@
         <v>1670275</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1612206</v>
+        <v>1617232</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1724589</v>
+        <v>1730685</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5011358289076082</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4837134437733981</v>
+        <v>0.4852212788791043</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5174318979494478</v>
+        <v>0.5192607847759626</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2888</v>
@@ -3417,19 +3417,19 @@
         <v>2971474</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2894126</v>
+        <v>2892624</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3054357</v>
+        <v>3051422</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4517938779780812</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.440033600128135</v>
+        <v>0.4398052583121244</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4643956661201386</v>
+        <v>0.4639493960477444</v>
       </c>
     </row>
     <row r="42">
@@ -3446,19 +3446,19 @@
         <v>18335</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11175</v>
+        <v>10844</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29415</v>
+        <v>28952</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.005651702087276208</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003444622121332312</v>
+        <v>0.003342578023786163</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.009067166142768278</v>
+        <v>0.00892445102247626</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>87</v>
@@ -3467,19 +3467,19 @@
         <v>87661</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>70962</v>
+        <v>71686</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>109581</v>
+        <v>109676</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02630118302160313</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02129100182918055</v>
+        <v>0.02150817968560661</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03287777203212987</v>
+        <v>0.03290620607330145</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>105</v>
@@ -3488,19 +3488,19 @@
         <v>105996</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>86937</v>
+        <v>86671</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>126942</v>
+        <v>126063</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01611599815720283</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01321827938302633</v>
+        <v>0.01317775129311854</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01930079490735423</v>
+        <v>0.0191670652576693</v>
       </c>
     </row>
     <row r="43">
@@ -3835,19 +3835,19 @@
         <v>22217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14793</v>
+        <v>14329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34213</v>
+        <v>33893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04945964738267645</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03293223174568116</v>
+        <v>0.03190011685107507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07616629830778199</v>
+        <v>0.07545307503151623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3856,19 +3856,19 @@
         <v>20941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13668</v>
+        <v>13727</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31132</v>
+        <v>31638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04950152742295277</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03230976778041274</v>
+        <v>0.03244919777118421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07359234160884474</v>
+        <v>0.0747884735204226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -3877,19 +3877,19 @@
         <v>43158</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31880</v>
+        <v>31239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56882</v>
+        <v>56250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04947995940445268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03655060178972293</v>
+        <v>0.03581463628228314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0652142154690168</v>
+        <v>0.06448985495264993</v>
       </c>
     </row>
     <row r="5">
@@ -3906,19 +3906,19 @@
         <v>120634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101208</v>
+        <v>103332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138810</v>
+        <v>138338</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2685563446067153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2253092514937561</v>
+        <v>0.2300381192283099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3090198297395292</v>
+        <v>0.3079701410416665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -3927,19 +3927,19 @@
         <v>67034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53930</v>
+        <v>52381</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83310</v>
+        <v>82514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1584588830658361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1274845959463996</v>
+        <v>0.1238222054109641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1969351718692526</v>
+        <v>0.1950518751757793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -3948,19 +3948,19 @@
         <v>187668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164066</v>
+        <v>163693</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>215702</v>
+        <v>209808</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2151585440895401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1880999272088614</v>
+        <v>0.1876715280255616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2473000284638272</v>
+        <v>0.240542009488114</v>
       </c>
     </row>
     <row r="6">
@@ -3977,19 +3977,19 @@
         <v>284653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>262797</v>
+        <v>263395</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>305764</v>
+        <v>304427</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6336971354113723</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5850418085548518</v>
+        <v>0.5863734553947509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6806957422533164</v>
+        <v>0.6777173461534914</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>286</v>
@@ -3998,19 +3998,19 @@
         <v>294804</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>275485</v>
+        <v>275797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>312167</v>
+        <v>312327</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6968796617609928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.651211945754301</v>
+        <v>0.6519486092246045</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7379231569650601</v>
+        <v>0.7382999673362781</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>563</v>
@@ -4019,19 +4019,19 @@
         <v>579457</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>549224</v>
+        <v>552177</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>606170</v>
+        <v>605864</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6643409658046417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6296787294569928</v>
+        <v>0.6330643276541428</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6949670905956723</v>
+        <v>0.694616038647874</v>
       </c>
     </row>
     <row r="7">
@@ -4048,19 +4048,19 @@
         <v>21690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13682</v>
+        <v>14544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32557</v>
+        <v>32176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04828687259923593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03045838711866237</v>
+        <v>0.03237848877948932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0724795647490762</v>
+        <v>0.07163052156169694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -4069,19 +4069,19 @@
         <v>40256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29429</v>
+        <v>29625</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53411</v>
+        <v>53296</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09515992775021831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06956731757927011</v>
+        <v>0.07002989459191233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1262575450234375</v>
+        <v>0.125983681937328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -4090,19 +4090,19 @@
         <v>61946</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48586</v>
+        <v>48347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78290</v>
+        <v>78371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07102053070136551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05570332582823182</v>
+        <v>0.0554286873823985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08975804857947159</v>
+        <v>0.08985166898100476</v>
       </c>
     </row>
     <row r="8">
@@ -4194,19 +4194,19 @@
         <v>63681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49029</v>
+        <v>50430</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80459</v>
+        <v>79823</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0933442903567373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07186703597624747</v>
+        <v>0.07392136918853864</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1179386415073845</v>
+        <v>0.117006087455724</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -4215,19 +4215,19 @@
         <v>72331</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56908</v>
+        <v>58103</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>90622</v>
+        <v>89873</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1217666628092161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09580335890625599</v>
+        <v>0.09781459953782431</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1525601655928402</v>
+        <v>0.1512988494393932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>130</v>
@@ -4236,19 +4236,19 @@
         <v>136011</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>115937</v>
+        <v>116579</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>160935</v>
+        <v>161080</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1065733215729892</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09084410405670675</v>
+        <v>0.09134725564677103</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1261025010722663</v>
+        <v>0.1262158050422338</v>
       </c>
     </row>
     <row r="10">
@@ -4265,19 +4265,19 @@
         <v>294335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>266906</v>
+        <v>268524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322186</v>
+        <v>319162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4314427673034629</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.391236830075715</v>
+        <v>0.3936073809610748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4722665186288625</v>
+        <v>0.4678334120884437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>146</v>
@@ -4286,19 +4286,19 @@
         <v>156314</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136689</v>
+        <v>136333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>180049</v>
+        <v>179736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2631501052176325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2301121923742549</v>
+        <v>0.2295119311787016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3031074112643227</v>
+        <v>0.302580745918869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>438</v>
@@ -4307,19 +4307,19 @@
         <v>450650</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>414664</v>
+        <v>413453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485676</v>
+        <v>484266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3531119072064757</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3249152388903606</v>
+        <v>0.3239661981696854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3805570424035569</v>
+        <v>0.3794527448034423</v>
       </c>
     </row>
     <row r="11">
@@ -4336,19 +4336,19 @@
         <v>322133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296829</v>
+        <v>296346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>350467</v>
+        <v>348293</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4721882950271015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4350986119353176</v>
+        <v>0.4343903354251276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.513721358768512</v>
+        <v>0.5105351044358248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>319</v>
@@ -4357,19 +4357,19 @@
         <v>343064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>319752</v>
+        <v>318063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>369101</v>
+        <v>366702</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5775376855311436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5382935437010595</v>
+        <v>0.5354492043551661</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6213710934758849</v>
+        <v>0.6173323232125887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -4378,19 +4378,19 @@
         <v>665196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628656</v>
+        <v>628624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>704966</v>
+        <v>703050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5212225682188011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4925907271061468</v>
+        <v>0.4925662449442624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5523843289577786</v>
+        <v>0.5508831641315443</v>
       </c>
     </row>
     <row r="12">
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6252</v>
+        <v>6247</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003024647312698302</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009164932507438994</v>
+        <v>0.009156907582567131</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4428,19 +4428,19 @@
         <v>22302</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13974</v>
+        <v>14576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32750</v>
+        <v>33973</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03754554644200782</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02352529835848508</v>
+        <v>0.0245377621040743</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05513382524693383</v>
+        <v>0.05719306477439564</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -4449,19 +4449,19 @@
         <v>24366</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15135</v>
+        <v>16820</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34470</v>
+        <v>36230</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01909220300173401</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01185943441022815</v>
+        <v>0.01317982020276206</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.027009776642233</v>
+        <v>0.02838842082359939</v>
       </c>
     </row>
     <row r="13">
@@ -4553,19 +4553,19 @@
         <v>116959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97870</v>
+        <v>98778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138240</v>
+        <v>138853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1753803004997952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1467561072140383</v>
+        <v>0.1481181662554702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2072912068813999</v>
+        <v>0.2082107214547779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -4574,19 +4574,19 @@
         <v>104731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85989</v>
+        <v>85778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>124557</v>
+        <v>125959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1517673259714666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1246071133324957</v>
+        <v>0.1243021557132252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1804969091362609</v>
+        <v>0.1825289534381514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -4595,19 +4595,19 @@
         <v>221690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194884</v>
+        <v>195781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249198</v>
+        <v>251894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1633720565408434</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1436178336031254</v>
+        <v>0.1442784010273352</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1836434317029974</v>
+        <v>0.1856302820596481</v>
       </c>
     </row>
     <row r="15">
@@ -4624,19 +4624,19 @@
         <v>354666</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>327842</v>
+        <v>328407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>381953</v>
+        <v>381083</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5318219288338213</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.491600348915573</v>
+        <v>0.4924473380257198</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5727398351754701</v>
+        <v>0.5714352225769207</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>221</v>
@@ -4645,19 +4645,19 @@
         <v>234684</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>211721</v>
+        <v>208943</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>261053</v>
+        <v>259698</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3400836702240315</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3068081590797039</v>
+        <v>0.3027818689562176</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3782958564592086</v>
+        <v>0.3763313852333572</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>557</v>
@@ -4666,19 +4666,19 @@
         <v>589350</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>553345</v>
+        <v>550331</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>625937</v>
+        <v>624624</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4343145274308892</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4077813862863024</v>
+        <v>0.4055599944693764</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4612770066012566</v>
+        <v>0.4603097514331172</v>
       </c>
     </row>
     <row r="16">
@@ -4695,19 +4695,19 @@
         <v>195263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>169692</v>
+        <v>172919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221222</v>
+        <v>219659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2927977706663834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2544527913048545</v>
+        <v>0.2592930618725297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3317226590378503</v>
+        <v>0.3293784247052396</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>316</v>
@@ -4716,19 +4716,19 @@
         <v>337860</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309315</v>
+        <v>312044</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363034</v>
+        <v>366648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4895979987908234</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4482327422740037</v>
+        <v>0.4521878783208815</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5260772457531363</v>
+        <v>0.5313150258926701</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>507</v>
@@ -4737,19 +4737,19 @@
         <v>533124</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>496280</v>
+        <v>496368</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>570053</v>
+        <v>570172</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3928794078891938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3657280167488688</v>
+        <v>0.3657928868215135</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4200941015421775</v>
+        <v>0.4201817194695304</v>
       </c>
     </row>
     <row r="17">
@@ -4779,19 +4779,19 @@
         <v>12802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6807</v>
+        <v>6940</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21830</v>
+        <v>22218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01855100501367858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00986356823737921</v>
+        <v>0.01005682904677266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03163403437653787</v>
+        <v>0.03219670811555828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -4800,19 +4800,19 @@
         <v>12802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6917</v>
+        <v>6970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21768</v>
+        <v>23125</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009434008139073639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005097212205361267</v>
+        <v>0.005136741994390868</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01604146993935577</v>
+        <v>0.01704183576619265</v>
       </c>
     </row>
     <row r="18">
@@ -4904,19 +4904,19 @@
         <v>121745</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103554</v>
+        <v>99848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144762</v>
+        <v>144680</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2014235261359172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1713276125843363</v>
+        <v>0.1651951739674187</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2395051358865485</v>
+        <v>0.239368813647397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -4925,19 +4925,19 @@
         <v>136450</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115700</v>
+        <v>116634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>160165</v>
+        <v>159950</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2280906185167799</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1934040370971287</v>
+        <v>0.1949665776497997</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2677323569616367</v>
+        <v>0.2673725859150077</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -4946,19 +4946,19 @@
         <v>258195</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>229948</v>
+        <v>228380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>290774</v>
+        <v>291474</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2146883850483304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1912008102916506</v>
+        <v>0.1898974151762202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.241777370793854</v>
+        <v>0.242359470029362</v>
       </c>
     </row>
     <row r="20">
@@ -4975,19 +4975,19 @@
         <v>337755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312458</v>
+        <v>311458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>363139</v>
+        <v>361890</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5588064918504778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5169517348594568</v>
+        <v>0.5152975701076367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6008034698439788</v>
+        <v>0.5987361934486523</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>179</v>
@@ -4996,19 +4996,19 @@
         <v>207900</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>181532</v>
+        <v>184174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232474</v>
+        <v>236500</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3475261294685228</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3034498622384078</v>
+        <v>0.3078666595401084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3886047683245363</v>
+        <v>0.3953345589824017</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>484</v>
@@ -5017,19 +5017,19 @@
         <v>545655</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513217</v>
+        <v>509707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>585846</v>
+        <v>585068</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4537105122088643</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4267379518125937</v>
+        <v>0.4238195848814586</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4871289687729696</v>
+        <v>0.4864818722434673</v>
       </c>
     </row>
     <row r="21">
@@ -5046,19 +5046,19 @@
         <v>144922</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>123022</v>
+        <v>125473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>168306</v>
+        <v>168959</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.239769982013605</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.203536489449919</v>
+        <v>0.2075921204568082</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2784572033523284</v>
+        <v>0.2795374812848122</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>216</v>
@@ -5067,19 +5067,19 @@
         <v>248516</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>223311</v>
+        <v>221440</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>275891</v>
+        <v>275151</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4154194157397088</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.373288252961141</v>
+        <v>0.3701593283794107</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4611805629985631</v>
+        <v>0.4599434128686929</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>345</v>
@@ -5088,19 +5088,19 @@
         <v>393438</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>361188</v>
+        <v>357384</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>426903</v>
+        <v>429444</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.327142273043508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.300326682325762</v>
+        <v>0.2971631274373953</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3549682518282182</v>
+        <v>0.3570809247307808</v>
       </c>
     </row>
     <row r="22">
@@ -5130,19 +5130,19 @@
         <v>5362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2120</v>
+        <v>1094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11885</v>
+        <v>11717</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008963836274988575</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003544413354702775</v>
+        <v>0.001828087165144123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01986673877475252</v>
+        <v>0.01958619583469094</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -5151,19 +5151,19 @@
         <v>5362</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11881</v>
+        <v>11845</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004458829699297291</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001771248313202686</v>
+        <v>0.001768699244934611</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009879008853492622</v>
+        <v>0.009848829481507702</v>
       </c>
     </row>
     <row r="23">
@@ -5255,19 +5255,19 @@
         <v>94121</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77185</v>
+        <v>76795</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112100</v>
+        <v>113323</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2244343077134839</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.184050396864349</v>
+        <v>0.183120662895521</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2673056127367949</v>
+        <v>0.2702221350783168</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>120</v>
@@ -5276,19 +5276,19 @@
         <v>129689</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111089</v>
+        <v>109527</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>151089</v>
+        <v>149942</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2971575845555586</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2545386842800417</v>
+        <v>0.2509589566979223</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3461913865659222</v>
+        <v>0.343562366685612</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>208</v>
@@ -5297,19 +5297,19 @@
         <v>223810</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>197188</v>
+        <v>198061</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>250624</v>
+        <v>248996</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2615208738793898</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2304131977742448</v>
+        <v>0.2314334522716574</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2928522904337801</v>
+        <v>0.2909504154921438</v>
       </c>
     </row>
     <row r="25">
@@ -5326,19 +5326,19 @@
         <v>227039</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>204807</v>
+        <v>205339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>247773</v>
+        <v>248701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5413804729061518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4883685746801119</v>
+        <v>0.4896375544542023</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5908231228347127</v>
+        <v>0.5930344982735577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>168</v>
@@ -5347,19 +5347,19 @@
         <v>183822</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163444</v>
+        <v>163207</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>207137</v>
+        <v>204759</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.421191752438944</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3745001101928497</v>
+        <v>0.373958535534113</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4746152629467125</v>
+        <v>0.4691656737526323</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>374</v>
@@ -5368,19 +5368,19 @@
         <v>410861</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>380937</v>
+        <v>378932</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>440037</v>
+        <v>441127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4800880349473632</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4451222026970588</v>
+        <v>0.4427798097084016</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5141799973854216</v>
+        <v>0.5154535137837289</v>
       </c>
     </row>
     <row r="26">
@@ -5397,19 +5397,19 @@
         <v>93000</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76477</v>
+        <v>76591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111029</v>
+        <v>112613</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2217615662378909</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1823616874233006</v>
+        <v>0.1826343022007536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.26475084361421</v>
+        <v>0.2685300431132602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>106</v>
@@ -5418,19 +5418,19 @@
         <v>121867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102112</v>
+        <v>102012</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141635</v>
+        <v>143224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2792336940451705</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.233969688791049</v>
+        <v>0.2337404334858793</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3245282202630004</v>
+        <v>0.3281700702063568</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -5439,19 +5439,19 @@
         <v>214867</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187635</v>
+        <v>190288</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242413</v>
+        <v>243482</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2510705297936545</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2192505535949326</v>
+        <v>0.2223507829624404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2832582379405644</v>
+        <v>0.2845066429371356</v>
       </c>
     </row>
     <row r="27">
@@ -5468,19 +5468,19 @@
         <v>5210</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2034</v>
+        <v>2059</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11534</v>
+        <v>12326</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01242365314247347</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00485084682569419</v>
+        <v>0.004909394679579533</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02750414103474083</v>
+        <v>0.02939158069724456</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5301</v>
+        <v>5834</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.002416968960326975</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01214708411776238</v>
+        <v>0.01336646900987979</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -5510,19 +5510,19 @@
         <v>6265</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2083</v>
+        <v>3065</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12608</v>
+        <v>13440</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007320561379592555</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.00243354762562726</v>
+        <v>0.003581142479213084</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01473194010669751</v>
+        <v>0.01570444707253177</v>
       </c>
     </row>
     <row r="28">
@@ -5614,19 +5614,19 @@
         <v>78664</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64031</v>
+        <v>63409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>96200</v>
+        <v>97688</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2593501328199518</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2111064763962809</v>
+        <v>0.2090576062605273</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3171660843741888</v>
+        <v>0.3220728621027099</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>131</v>
@@ -5635,19 +5635,19 @@
         <v>135023</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>117804</v>
+        <v>117545</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>152992</v>
+        <v>153263</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4105316634638378</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.358178068921165</v>
+        <v>0.3573906294486688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4651665737251178</v>
+        <v>0.4659890298528684</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>202</v>
@@ -5656,19 +5656,19 @@
         <v>213687</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>187389</v>
+        <v>191221</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>237538</v>
+        <v>240409</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3380001907250312</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2964038980781242</v>
+        <v>0.3024656182063122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3757262555858941</v>
+        <v>0.3802675089174588</v>
       </c>
     </row>
     <row r="30">
@@ -5685,19 +5685,19 @@
         <v>178174</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>160345</v>
+        <v>160509</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>196661</v>
+        <v>196174</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5874308655888462</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5286501984822486</v>
+        <v>0.5291885079068611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6483794855128082</v>
+        <v>0.6467739873272286</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>132</v>
@@ -5706,19 +5706,19 @@
         <v>132499</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>115730</v>
+        <v>114887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>149912</v>
+        <v>150944</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4028584878354773</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3518728825417176</v>
+        <v>0.3493075078384431</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4557997936207395</v>
+        <v>0.4589394952757716</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>297</v>
@@ -5727,19 +5727,19 @@
         <v>310674</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>284674</v>
+        <v>285678</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>337908</v>
+        <v>336980</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4914096906731407</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4502838729275363</v>
+        <v>0.4518731489975542</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5344881652199188</v>
+        <v>0.5330200153900564</v>
       </c>
     </row>
     <row r="31">
@@ -5756,19 +5756,19 @@
         <v>44381</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32132</v>
+        <v>31748</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>60140</v>
+        <v>58776</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.146320365391862</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1059376757626221</v>
+        <v>0.1046715921972977</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1982790863579002</v>
+        <v>0.1937809025291241</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>55</v>
@@ -5777,19 +5777,19 @@
         <v>60473</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>46257</v>
+        <v>48085</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75146</v>
+        <v>76338</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.183866746360717</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1406420165353837</v>
+        <v>0.1462002726525413</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2284777090661044</v>
+        <v>0.2321016215121746</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>93</v>
@@ -5798,19 +5798,19 @@
         <v>104854</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>86151</v>
+        <v>85504</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>127356</v>
+        <v>127142</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.165853340251619</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1362692938911877</v>
+        <v>0.1352466299603029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.201445788971143</v>
+        <v>0.2011080092463562</v>
       </c>
     </row>
     <row r="32">
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7172</v>
+        <v>7728</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006898636199340153</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02364599932013614</v>
+        <v>0.02547716292514021</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4307</v>
+        <v>5422</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002743102339967848</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01309674144788101</v>
+        <v>0.01648620859202413</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5872,16 +5872,16 @@
         <v>899</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7484</v>
+        <v>8159</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004736778350208978</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001422420407645478</v>
+        <v>0.001421577524345394</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01183822314538631</v>
+        <v>0.0129050575964423</v>
       </c>
     </row>
     <row r="33">
@@ -5973,19 +5973,19 @@
         <v>57916</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44293</v>
+        <v>43741</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>71462</v>
+        <v>71576</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2465135820021503</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.188529829804739</v>
+        <v>0.1861790588513305</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3041685458823256</v>
+        <v>0.3046532985940607</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>108</v>
@@ -5994,19 +5994,19 @@
         <v>118844</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>101259</v>
+        <v>102241</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>138438</v>
+        <v>138948</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3527979979561559</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3005951139859676</v>
+        <v>0.3035123928485085</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4109657532904575</v>
+        <v>0.4124801776421841</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>159</v>
@@ -6015,19 +6015,19 @@
         <v>176760</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>155191</v>
+        <v>154638</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>203046</v>
+        <v>199799</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3091280170801942</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2714075596090252</v>
+        <v>0.270439461161245</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3550982078090393</v>
+        <v>0.3494205102378454</v>
       </c>
     </row>
     <row r="35">
@@ -6044,19 +6044,19 @@
         <v>129717</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>114112</v>
+        <v>112633</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>146957</v>
+        <v>145253</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5521259188958146</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4857041264751563</v>
+        <v>0.4794087077807159</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6255046323014239</v>
+        <v>0.6182525373456483</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>135</v>
@@ -6065,19 +6065,19 @@
         <v>150948</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>131809</v>
+        <v>132783</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>171348</v>
+        <v>171130</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4481020338871156</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3912870909839098</v>
+        <v>0.3941774610519634</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5086617732519194</v>
+        <v>0.508012505195919</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>248</v>
@@ -6086,19 +6086,19 @@
         <v>280665</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>256201</v>
+        <v>254881</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>304619</v>
+        <v>304265</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4908432112102236</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4480596534495625</v>
+        <v>0.4457504392098354</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.532734598672151</v>
+        <v>0.5321160041181927</v>
       </c>
     </row>
     <row r="36">
@@ -6115,19 +6115,19 @@
         <v>47308</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>34916</v>
+        <v>35891</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>60739</v>
+        <v>60649</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2013604991020351</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.14861428468877</v>
+        <v>0.1527664601125805</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2585289290352741</v>
+        <v>0.2581460485473312</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>59</v>
@@ -6136,19 +6136,19 @@
         <v>65960</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>50337</v>
+        <v>50922</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>80408</v>
+        <v>80332</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1958090118543487</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1494309969579261</v>
+        <v>0.1511654559346371</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2386971254317791</v>
+        <v>0.2384736410292079</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>104</v>
@@ -6157,19 +6157,19 @@
         <v>113268</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>94781</v>
+        <v>94215</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>134351</v>
+        <v>136550</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1980899985800463</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1657584118352038</v>
+        <v>0.1647682944731433</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2349599291710213</v>
+        <v>0.2388068289095182</v>
       </c>
     </row>
     <row r="37">
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5521</v>
+        <v>5406</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003290956302379883</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0163908523328957</v>
+        <v>0.0160492267938385</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5528</v>
+        <v>6332</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001938773129535917</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.009667844801732059</v>
+        <v>0.01107422620841011</v>
       </c>
     </row>
     <row r="38">
@@ -6324,19 +6324,19 @@
         <v>555303</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1652519369933603</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>669</v>
@@ -6345,19 +6345,19 @@
         <v>718009</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2107116530554805</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1179</v>
@@ -6366,19 +6366,19 @@
         <v>1273311</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1881403202191062</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
     </row>
     <row r="40">
@@ -6395,19 +6395,19 @@
         <v>1642321</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1584025</v>
+        <v>1582495</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1702424</v>
+        <v>1704244</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4887365581400693</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4713883511715405</v>
+        <v>0.4709331117090512</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5066226517678462</v>
+        <v>0.5071642706269961</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1048</v>
@@ -6416,19 +6416,19 @@
         <v>1133200</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1073652</v>
+        <v>1077877</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1192582</v>
+        <v>1194975</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3325565453322095</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3150809388950284</v>
+        <v>0.3163210449993251</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3499829490969429</v>
+        <v>0.3506853844446721</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2585</v>
@@ -6437,19 +6437,19 @@
         <v>2775521</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2691760</v>
+        <v>2694181</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2863381</v>
+        <v>2861228</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4101019274163887</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3977255818141964</v>
+        <v>0.3980833381395313</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4230838276363191</v>
+        <v>0.4227656758508325</v>
       </c>
     </row>
     <row r="41">
@@ -6466,19 +6466,19 @@
         <v>1131660</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1072136</v>
+        <v>1072520</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1183771</v>
+        <v>1191167</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3367695343747366</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.319055706251436</v>
+        <v>0.31916997284416</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3522770270190165</v>
+        <v>0.3544781577593494</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1357</v>
@@ -6487,19 +6487,19 @@
         <v>1472545</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1409983</v>
+        <v>1413496</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1533500</v>
+        <v>1538762</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4321427666024237</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.413783017513567</v>
+        <v>0.4148138176075473</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4500310238059305</v>
+        <v>0.451575261899039</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2428</v>
@@ -6508,19 +6508,19 @@
         <v>2604205</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2521150</v>
+        <v>2518894</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2689648</v>
+        <v>2684680</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3847887319808632</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3725168558802266</v>
+        <v>0.3721834755871652</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3974135894383055</v>
+        <v>0.396679449430396</v>
       </c>
     </row>
     <row r="42">
@@ -6537,19 +6537,19 @@
         <v>31056</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>22085</v>
+        <v>20434</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>44604</v>
+        <v>42829</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009241970491833926</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006572271559890536</v>
+        <v>0.006081011199231422</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0132737468276462</v>
+        <v>0.01274530408755849</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>82</v>
@@ -6558,19 +6558,19 @@
         <v>83788</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>67921</v>
+        <v>67571</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>104524</v>
+        <v>104138</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02458903500988623</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0199324608911636</v>
+        <v>0.01982977195605624</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03067441967756795</v>
+        <v>0.0305611574651234</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>113</v>
@@ -6579,19 +6579,19 @@
         <v>114844</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>96344</v>
+        <v>96616</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>139160</v>
+        <v>138914</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01696902038364192</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01423545919090733</v>
+        <v>0.01427565903969611</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02056184918478399</v>
+        <v>0.02052552518267435</v>
       </c>
     </row>
     <row r="43">
@@ -6926,19 +6926,19 @@
         <v>19042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11591</v>
+        <v>11211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30926</v>
+        <v>29121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04704718080954778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02863720580155359</v>
+        <v>0.02769930173949679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07641018001093515</v>
+        <v>0.07194938128349153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -6947,19 +6947,19 @@
         <v>17817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11308</v>
+        <v>10922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27576</v>
+        <v>26548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04660264702783989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02957745301658416</v>
+        <v>0.02856730698788448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07212953434509418</v>
+        <v>0.06943926847247013</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -6968,19 +6968,19 @@
         <v>36859</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26575</v>
+        <v>25929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51198</v>
+        <v>49386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04683124640586572</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03376490275780483</v>
+        <v>0.03294453909017465</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06505042551076443</v>
+        <v>0.06274718437311762</v>
       </c>
     </row>
     <row r="5">
@@ -6997,19 +6997,19 @@
         <v>83455</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68238</v>
+        <v>68191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101050</v>
+        <v>100542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.206193681898181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1685977089964021</v>
+        <v>0.1684800232198909</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2496674420790495</v>
+        <v>0.2484120227582024</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -7018,19 +7018,19 @@
         <v>68632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54371</v>
+        <v>55333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84069</v>
+        <v>84314</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1795159553213425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1422148192028908</v>
+        <v>0.1447317767759959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2198942580828057</v>
+        <v>0.2205337644616379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -7039,19 +7039,19 @@
         <v>152087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131691</v>
+        <v>130398</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174577</v>
+        <v>173738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1932348490332625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1673211451613411</v>
+        <v>0.1656782534043508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2218097173194719</v>
+        <v>0.2207443361707866</v>
       </c>
     </row>
     <row r="6">
@@ -7068,19 +7068,19 @@
         <v>285927</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>266968</v>
+        <v>266809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>304233</v>
+        <v>303726</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7064449203060631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6596039924573143</v>
+        <v>0.6592114881012296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7516739464106102</v>
+        <v>0.7504231239942519</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>267</v>
@@ -7089,19 +7089,19 @@
         <v>262680</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>243685</v>
+        <v>245217</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>279881</v>
+        <v>279719</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6870763644824854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6373913758443226</v>
+        <v>0.6413990512338447</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7320666852945511</v>
+        <v>0.7316438400386611</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>534</v>
@@ -7110,19 +7110,19 @@
         <v>548607</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>523045</v>
+        <v>523875</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>574654</v>
+        <v>576007</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6970365519794119</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6645591411068011</v>
+        <v>0.6656139251951556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.730131346133411</v>
+        <v>0.7318500344845512</v>
       </c>
     </row>
     <row r="7">
@@ -7139,19 +7139,19 @@
         <v>16317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9328</v>
+        <v>9476</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26683</v>
+        <v>26810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04031421698620809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02304693460251703</v>
+        <v>0.02341151528164711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0659261265564533</v>
+        <v>0.06623974957430949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -7160,19 +7160,19 @@
         <v>33187</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23315</v>
+        <v>23898</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43993</v>
+        <v>46163</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08680503316833225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06098418849783821</v>
+        <v>0.06250791174215704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1150703458219996</v>
+        <v>0.120745274171841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -7181,19 +7181,19 @@
         <v>49504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36765</v>
+        <v>36646</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64795</v>
+        <v>63315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06289735258145981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04671215039684742</v>
+        <v>0.04656110618024574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08232594334125466</v>
+        <v>0.08044497398202985</v>
       </c>
     </row>
     <row r="8">
@@ -7285,19 +7285,19 @@
         <v>49801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36903</v>
+        <v>37758</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65347</v>
+        <v>65228</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08655814998057768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0641415359559698</v>
+        <v>0.06562698956830962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1135802142217684</v>
+        <v>0.1133719887136797</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -7306,19 +7306,19 @@
         <v>67330</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53894</v>
+        <v>53552</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>83363</v>
+        <v>83724</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1245764765693051</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0997155083475624</v>
+        <v>0.09908256241761768</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1542399982753709</v>
+        <v>0.1549085495277503</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>114</v>
@@ -7327,19 +7327,19 @@
         <v>117131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>98103</v>
+        <v>95467</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>137269</v>
+        <v>137315</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1049733200715308</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08792016565128008</v>
+        <v>0.08555803557781481</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1230210734962033</v>
+        <v>0.1230620843946084</v>
       </c>
     </row>
     <row r="10">
@@ -7356,19 +7356,19 @@
         <v>209329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>184604</v>
+        <v>186328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232255</v>
+        <v>234242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.363834021114853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3208595317169489</v>
+        <v>0.3238567277737673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4036816119196178</v>
+        <v>0.407134836856628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>147</v>
@@ -7377,19 +7377,19 @@
         <v>141532</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122190</v>
+        <v>121343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162503</v>
+        <v>160672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.261865160388968</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2260781996360369</v>
+        <v>0.2245112948963461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3006663996531141</v>
+        <v>0.2972785308029333</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -7398,19 +7398,19 @@
         <v>350860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>318737</v>
+        <v>320852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380979</v>
+        <v>380795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3144427384694813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2856537190294549</v>
+        <v>0.2875494234599087</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3414356717969468</v>
+        <v>0.341270666219482</v>
       </c>
     </row>
     <row r="11">
@@ -7427,19 +7427,19 @@
         <v>309392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>286102</v>
+        <v>286004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>334140</v>
+        <v>332203</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5377537683718487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4972720738848438</v>
+        <v>0.4971028694153469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5807680134255929</v>
+        <v>0.5774004523247072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -7448,19 +7448,19 @@
         <v>314994</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>294276</v>
+        <v>292957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338044</v>
+        <v>338654</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5828100063214323</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5444759776087865</v>
+        <v>0.5420363573661939</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6254570900220369</v>
+        <v>0.6265864836663144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>621</v>
@@ -7469,19 +7469,19 @@
         <v>624386</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594361</v>
+        <v>591192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658914</v>
+        <v>655313</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5595779347660124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5326696048734384</v>
+        <v>0.5298294020007372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5905224275991621</v>
+        <v>0.5872950824778814</v>
       </c>
     </row>
     <row r="12">
@@ -7498,19 +7498,19 @@
         <v>6820</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2930</v>
+        <v>2825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12874</v>
+        <v>13398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01185406053272056</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005092805809779445</v>
+        <v>0.004910437912247853</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02237596357594666</v>
+        <v>0.02328626577291212</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -7519,19 +7519,19 @@
         <v>16619</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10252</v>
+        <v>10007</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25645</v>
+        <v>25488</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03074835672029457</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01896928798030135</v>
+        <v>0.01851458981633262</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04744886778135458</v>
+        <v>0.04715836257643997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -7540,19 +7540,19 @@
         <v>23439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15667</v>
+        <v>15914</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>33792</v>
+        <v>35029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02100600669297554</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01404084343122127</v>
+        <v>0.01426209697370543</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03028453812521345</v>
+        <v>0.03139317332742757</v>
       </c>
     </row>
     <row r="13">
@@ -7644,19 +7644,19 @@
         <v>88007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72474</v>
+        <v>71212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>107060</v>
+        <v>107937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1344665392445167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.110733342887075</v>
+        <v>0.108804939241858</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1635784843204691</v>
+        <v>0.164917179166889</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -7665,19 +7665,19 @@
         <v>81885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67364</v>
+        <v>65466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101019</v>
+        <v>100835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1283548675181418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1055929574242306</v>
+        <v>0.1026181728095816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1583460939532781</v>
+        <v>0.1580578066746877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -7686,19 +7686,19 @@
         <v>169892</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146659</v>
+        <v>147980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>196581</v>
+        <v>200826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.131449783568873</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1134734390335716</v>
+        <v>0.1144959023143185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1520992264462001</v>
+        <v>0.1553841832843271</v>
       </c>
     </row>
     <row r="15">
@@ -7715,19 +7715,19 @@
         <v>314671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>290096</v>
+        <v>290005</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>340789</v>
+        <v>340757</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4807881172166611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4432404639447103</v>
+        <v>0.443100472033039</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5206939366670982</v>
+        <v>0.5206452504994765</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>201</v>
@@ -7736,19 +7736,19 @@
         <v>195985</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175387</v>
+        <v>174508</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>219738</v>
+        <v>219569</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3072053688203322</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2749173863382371</v>
+        <v>0.273539956273223</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3444379320554321</v>
+        <v>0.3441731105273456</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>502</v>
@@ -7757,19 +7757,19 @@
         <v>510656</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>477946</v>
+        <v>476550</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>546791</v>
+        <v>547264</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3951066924178431</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3697985013796234</v>
+        <v>0.3687178931390037</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4230653251808341</v>
+        <v>0.4234314943542753</v>
       </c>
     </row>
     <row r="16">
@@ -7786,19 +7786,19 @@
         <v>250026</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>223361</v>
+        <v>226153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275002</v>
+        <v>277661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.382016294287958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3412743514029437</v>
+        <v>0.345540716646882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4201772970633362</v>
+        <v>0.4242398847764759</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -7807,19 +7807,19 @@
         <v>345781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>321931</v>
+        <v>318410</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>368580</v>
+        <v>369228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5420098209235429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5046241154866958</v>
+        <v>0.4991061927726992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5777462424741506</v>
+        <v>0.5787621862030778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>583</v>
@@ -7828,19 +7828,19 @@
         <v>595807</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>559420</v>
+        <v>558978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>630294</v>
+        <v>630488</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4609900024897949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4328367334956557</v>
+        <v>0.4324945301372701</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4876731338093728</v>
+        <v>0.4878235539555709</v>
       </c>
     </row>
     <row r="17">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6176</v>
+        <v>5446</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002729049250864236</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009436899649569664</v>
+        <v>0.008321680485990419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -7878,19 +7878,19 @@
         <v>14309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8412</v>
+        <v>8239</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24301</v>
+        <v>23523</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02242994273798304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01318537668103755</v>
+        <v>0.01291407046401611</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03809165852772492</v>
+        <v>0.03687182037960737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -7899,19 +7899,19 @@
         <v>16096</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9632</v>
+        <v>9286</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25739</v>
+        <v>25324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01245352152348895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007452757692477189</v>
+        <v>0.007185143765195572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01991487541742402</v>
+        <v>0.01959365413285082</v>
       </c>
     </row>
     <row r="18">
@@ -8003,19 +8003,19 @@
         <v>146680</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125240</v>
+        <v>122156</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>167450</v>
+        <v>168911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2339454830037673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1997492766918957</v>
+        <v>0.194831115919432</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2670714127753344</v>
+        <v>0.2694014828503456</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>95</v>
@@ -8024,19 +8024,19 @@
         <v>102321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85758</v>
+        <v>84834</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124882</v>
+        <v>121647</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1633372528631717</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1368977135151953</v>
+        <v>0.1354224080817751</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1993514171456823</v>
+        <v>0.1941882420375346</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>228</v>
@@ -8045,19 +8045,19 @@
         <v>249001</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>221795</v>
+        <v>220530</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>281230</v>
+        <v>277106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1986566840717304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1769513825209552</v>
+        <v>0.1759415061535639</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2243692660201873</v>
+        <v>0.2210786512363701</v>
       </c>
     </row>
     <row r="20">
@@ -8074,19 +8074,19 @@
         <v>290844</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261173</v>
+        <v>265235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>315802</v>
+        <v>317496</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4638770423266222</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4165532350571238</v>
+        <v>0.423032283844528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5036836878804538</v>
+        <v>0.5063846930747059</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>221</v>
@@ -8095,19 +8095,19 @@
         <v>239157</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>216934</v>
+        <v>214366</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265449</v>
+        <v>264561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3817707197631965</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3462963741137993</v>
+        <v>0.3421970845278069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4237409928560927</v>
+        <v>0.4223245116907443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>483</v>
@@ -8116,19 +8116,19 @@
         <v>530001</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>492516</v>
+        <v>492132</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>565522</v>
+        <v>567314</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4228416913169693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.392935757392801</v>
+        <v>0.3926295172371433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4511810835086464</v>
+        <v>0.4526106236074834</v>
       </c>
     </row>
     <row r="21">
@@ -8145,19 +8145,19 @@
         <v>186404</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>165274</v>
+        <v>162868</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>213584</v>
+        <v>212349</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2973023464151438</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2636019994855326</v>
+        <v>0.2597641862049096</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3406522120992291</v>
+        <v>0.3386830214556038</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>257</v>
@@ -8166,19 +8166,19 @@
         <v>276634</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>252961</v>
+        <v>254007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>301182</v>
+        <v>303570</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4415964366412287</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4038067597819902</v>
+        <v>0.4054766075141512</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4807834734709954</v>
+        <v>0.4845944064803995</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>426</v>
@@ -8187,19 +8187,19 @@
         <v>463038</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>428119</v>
+        <v>429161</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>496049</v>
+        <v>499004</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3694180916608517</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.341558889967116</v>
+        <v>0.3423900771965384</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3957547664676442</v>
+        <v>0.3981120412036601</v>
       </c>
     </row>
     <row r="22">
@@ -8216,7 +8216,7 @@
         <v>3057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8148</v>
@@ -8225,10 +8225,10 @@
         <v>0.004875128254466722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00151307005712196</v>
+        <v>0.00150433443115165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01299474410448187</v>
+        <v>0.01299520240753104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8237,19 +8237,19 @@
         <v>8329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4123</v>
+        <v>3987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15948</v>
+        <v>16695</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01329559073240303</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006581643683969294</v>
+        <v>0.00636404403597868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02545780656504728</v>
+        <v>0.02665103951520836</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8258,19 +8258,19 @@
         <v>11386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6281</v>
+        <v>6008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20073</v>
+        <v>20240</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009083532950448654</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00501111200213569</v>
+        <v>0.004793354659404205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01601477054453325</v>
+        <v>0.01614766941335426</v>
       </c>
     </row>
     <row r="23">
@@ -8362,19 +8362,19 @@
         <v>113239</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95745</v>
+        <v>92746</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132216</v>
+        <v>132185</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2441662205216225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2064458083645727</v>
+        <v>0.1999792921063459</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2850842621960346</v>
+        <v>0.2850174908398687</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -8383,19 +8383,19 @@
         <v>128324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>109302</v>
+        <v>109238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>150314</v>
+        <v>149360</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2708139905225936</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2306685617925825</v>
+        <v>0.2305335554221235</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3172197615102957</v>
+        <v>0.3152076494269664</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>215</v>
@@ -8404,19 +8404,19 @@
         <v>241563</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>213060</v>
+        <v>211573</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>268795</v>
+        <v>269842</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2576332033392361</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2272345239196236</v>
+        <v>0.2256482882656619</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2866768955061545</v>
+        <v>0.2877938602016386</v>
       </c>
     </row>
     <row r="25">
@@ -8433,19 +8433,19 @@
         <v>236628</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>213867</v>
+        <v>215104</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>258621</v>
+        <v>260048</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5102196709575877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4611422651082154</v>
+        <v>0.4638097858283103</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.557640149567829</v>
+        <v>0.5607187624340713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>176</v>
@@ -8454,19 +8454,19 @@
         <v>201406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178877</v>
+        <v>178400</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223817</v>
+        <v>223313</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4250442361302078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3774988781990776</v>
+        <v>0.376491967703414</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4723392423892516</v>
+        <v>0.4712760069297096</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>387</v>
@@ -8475,19 +8475,19 @@
         <v>438034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>406542</v>
+        <v>407395</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>469189</v>
+        <v>471245</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4671745637211739</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4335881773037674</v>
+        <v>0.4344972598739623</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5004027957951723</v>
+        <v>0.5025950656894985</v>
       </c>
     </row>
     <row r="26">
@@ -8504,19 +8504,19 @@
         <v>113910</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>94758</v>
+        <v>96346</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133291</v>
+        <v>135056</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2456141085207898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2043171109964945</v>
+        <v>0.2077424819668415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2874029020934039</v>
+        <v>0.2912095323884506</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -8525,19 +8525,19 @@
         <v>141908</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>117363</v>
+        <v>122195</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>163703</v>
+        <v>161460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2994810096970701</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2476819609513455</v>
+        <v>0.2578780715715722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3454759104207435</v>
+        <v>0.3407434789462697</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>221</v>
@@ -8546,19 +8546,19 @@
         <v>255818</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>227157</v>
+        <v>226033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>287542</v>
+        <v>284425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2728368229375166</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2422694613964696</v>
+        <v>0.2410704419394996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3066707548786389</v>
+        <v>0.3033471654898476</v>
       </c>
     </row>
     <row r="27">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7571</v>
+        <v>6661</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.004660763650128592</v>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01597736610732213</v>
+        <v>0.01405727990826386</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7635</v>
+        <v>8933</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002355410002073435</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008143179893055649</v>
+        <v>0.009526856205581035</v>
       </c>
     </row>
     <row r="28">
@@ -8713,19 +8713,19 @@
         <v>89778</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75355</v>
+        <v>73815</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>107484</v>
+        <v>104883</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2822075404797834</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.236868752073026</v>
+        <v>0.2320283716935555</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3378639966779142</v>
+        <v>0.3296875353512959</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>102</v>
@@ -8734,19 +8734,19 @@
         <v>109397</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>93045</v>
+        <v>92613</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126966</v>
+        <v>128318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3148122146837424</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2677539870765616</v>
+        <v>0.266511679052234</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3653711020511951</v>
+        <v>0.3692607000262782</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>189</v>
@@ -8755,19 +8755,19 @@
         <v>199175</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>176291</v>
+        <v>174276</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>222868</v>
+        <v>222871</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2992292339106684</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2648485149522228</v>
+        <v>0.2618216973143968</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3348232057524569</v>
+        <v>0.3348279381640208</v>
       </c>
     </row>
     <row r="30">
@@ -8784,19 +8784,19 @@
         <v>171016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>153310</v>
+        <v>153114</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>188623</v>
+        <v>189043</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5375702442717403</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4819141841009519</v>
+        <v>0.4812956298891118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5929168262500625</v>
+        <v>0.5942360170352651</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>139</v>
@@ -8805,19 +8805,19 @@
         <v>144033</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>125776</v>
+        <v>127339</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>163096</v>
+        <v>163273</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4144825440904758</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3619463622131396</v>
+        <v>0.3664422616217038</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4693398666695918</v>
+        <v>0.4698505277557847</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -8826,19 +8826,19 @@
         <v>315049</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>288538</v>
+        <v>287333</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>337995</v>
+        <v>341950</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4733107125097645</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4334822985617643</v>
+        <v>0.4316720534659927</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5077841153458917</v>
+        <v>0.5137255441446275</v>
       </c>
     </row>
     <row r="31">
@@ -8855,19 +8855,19 @@
         <v>57334</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44679</v>
+        <v>44231</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70749</v>
+        <v>72445</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1802222152484764</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1404429159665533</v>
+        <v>0.139034347633274</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2223915323220132</v>
+        <v>0.2277229538313451</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>79</v>
@@ -8876,19 +8876,19 @@
         <v>88124</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72047</v>
+        <v>70886</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106465</v>
+        <v>104269</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2535942659016736</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2073281824084296</v>
+        <v>0.2039885605259035</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3063740126456</v>
+        <v>0.3000544129442101</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>135</v>
@@ -8897,19 +8897,19 @@
         <v>145458</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>124441</v>
+        <v>124283</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>167814</v>
+        <v>167576</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2185270467827979</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1869526687653225</v>
+        <v>0.1867152658254371</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2521143384672967</v>
+        <v>0.2517561804458498</v>
       </c>
     </row>
     <row r="32">
@@ -8939,19 +8939,19 @@
         <v>5946</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13977</v>
+        <v>12611</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01711097532410825</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006054122980502358</v>
+        <v>0.006044686952062259</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04022125817263954</v>
+        <v>0.03629158888604064</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -8960,19 +8960,19 @@
         <v>5946</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2103</v>
+        <v>2130</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12541</v>
+        <v>13272</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008933006796769135</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003159632630999874</v>
+        <v>0.003200011109322957</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0188406955774531</v>
+        <v>0.01993956178785109</v>
       </c>
     </row>
     <row r="33">
@@ -9064,19 +9064,19 @@
         <v>49949</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39654</v>
+        <v>39449</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>62435</v>
+        <v>62741</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2167416931728732</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1720674313214952</v>
+        <v>0.1711782132844972</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2709213595403661</v>
+        <v>0.2722498703683074</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -9085,19 +9085,19 @@
         <v>117402</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>98346</v>
+        <v>97999</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>138824</v>
+        <v>138046</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3517277340109384</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2946373642407448</v>
+        <v>0.2935971006322211</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4159047170995543</v>
+        <v>0.4135739282204235</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>145</v>
@@ -9106,19 +9106,19 @@
         <v>167352</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>143805</v>
+        <v>143859</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>192121</v>
+        <v>189999</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2965951849181026</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2548633491400555</v>
+        <v>0.2549587227202008</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3404935646987355</v>
+        <v>0.3367317746445704</v>
       </c>
     </row>
     <row r="35">
@@ -9135,19 +9135,19 @@
         <v>125289</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>111116</v>
+        <v>111577</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>138691</v>
+        <v>139914</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5436607464531906</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4821600101234545</v>
+        <v>0.4841608159104545</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6018118138130111</v>
+        <v>0.6071203454885584</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>101</v>
@@ -9156,19 +9156,19 @@
         <v>131999</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>111909</v>
+        <v>111866</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>152430</v>
+        <v>151361</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.395456342145721</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3352695186363801</v>
+        <v>0.3351422366685499</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.456667641724561</v>
+        <v>0.453464066992428</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>252</v>
@@ -9177,19 +9177,19 @@
         <v>257288</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>230857</v>
+        <v>233066</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>280888</v>
+        <v>281790</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4559876870575863</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4091450988600217</v>
+        <v>0.4130602041191612</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.497813035812434</v>
+        <v>0.4994119982423748</v>
       </c>
     </row>
     <row r="36">
@@ -9206,19 +9206,19 @@
         <v>53479</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42187</v>
+        <v>42074</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65989</v>
+        <v>66150</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2320578732374818</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1830598456941796</v>
+        <v>0.1825699209661946</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2863417479914404</v>
+        <v>0.2870393087463222</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>62</v>
@@ -9227,19 +9227,19 @@
         <v>82516</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>65145</v>
+        <v>64065</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>100339</v>
+        <v>100647</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2472095812487087</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1951679001753727</v>
+        <v>0.1919337974039045</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3006077183857088</v>
+        <v>0.3015292626245023</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>124</v>
@@ -9248,19 +9248,19 @@
         <v>135994</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>114533</v>
+        <v>116497</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>155561</v>
+        <v>159275</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2410211466477457</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2029845980707067</v>
+        <v>0.2064653144096546</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2756991745426693</v>
+        <v>0.2822810000586267</v>
       </c>
     </row>
     <row r="37">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6174</v>
+        <v>6023</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.007539687136454368</v>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02679001032418664</v>
+        <v>0.02613736774471518</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>7606</v>
+        <v>9297</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.005606342594631943</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02278629539876278</v>
+        <v>0.02785260734052478</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -9319,19 +9319,19 @@
         <v>3609</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10955</v>
+        <v>11306</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.006395981376565411</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001485735329473526</v>
+        <v>0.001476835293917226</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01941597203148333</v>
+        <v>0.02003832417904182</v>
       </c>
     </row>
     <row r="38">
@@ -9423,19 +9423,19 @@
         <v>556496</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1699786011504099</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>568</v>
@@ -9444,19 +9444,19 @@
         <v>624478</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1868392714366687</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1093</v>
@@ -9465,19 +9465,19 @@
         <v>1180974</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1784961065829205</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
     </row>
     <row r="40">
@@ -9494,19 +9494,19 @@
         <v>1431232</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1369892</v>
+        <v>1369287</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1482470</v>
+        <v>1491392</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4371621293110291</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4184261454443097</v>
+        <v>0.418241466426754</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4528124964271413</v>
+        <v>0.455537499806048</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1056</v>
@@ -9515,19 +9515,19 @@
         <v>1122742</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1068502</v>
+        <v>1066057</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1174032</v>
+        <v>1176272</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3359163089725023</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3196879023165216</v>
+        <v>0.3189565406622016</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3512617522445551</v>
+        <v>0.3519320278286947</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2428</v>
@@ -9536,19 +9536,19 @@
         <v>2553975</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2467572</v>
+        <v>2483082</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2633458</v>
+        <v>2635250</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3860157745035806</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3729566299352207</v>
+        <v>0.3753008906083191</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3980291772209896</v>
+        <v>0.3983000444585168</v>
       </c>
     </row>
     <row r="41">
@@ -9565,19 +9565,19 @@
         <v>1256471</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1204009</v>
+        <v>1203257</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1313723</v>
+        <v>1316517</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3837823055425885</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3677579729369253</v>
+        <v>0.3675284198840065</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4012694711635466</v>
+        <v>0.4021231587475215</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1454</v>
@@ -9586,19 +9586,19 @@
         <v>1512638</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1452860</v>
+        <v>1449566</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1568097</v>
+        <v>1564557</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4525700374501901</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4346851299564925</v>
+        <v>0.4336996090358649</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4691632156984325</v>
+        <v>0.4681039130231349</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2644</v>
@@ -9607,19 +9607,19 @@
         <v>2769109</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2692616</v>
+        <v>2688346</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2846961</v>
+        <v>2846926</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4185318066161361</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4069704817049585</v>
+        <v>0.4063250838208783</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4302986332807889</v>
+        <v>0.4302933788636134</v>
       </c>
     </row>
     <row r="42">
@@ -9636,19 +9636,19 @@
         <v>29717</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20327</v>
+        <v>20184</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>41783</v>
+        <v>42197</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009076963995972499</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.00620867649705943</v>
+        <v>0.006165133518275716</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01276239618263876</v>
+        <v>0.01288873218015842</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>82</v>
@@ -9657,19 +9657,19 @@
         <v>82470</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>66769</v>
+        <v>68049</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>100504</v>
+        <v>103639</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02467438214063885</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01997677207783279</v>
+        <v>0.02035984006492881</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03007006605098963</v>
+        <v>0.03100814951765529</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>111</v>
@@ -9678,19 +9678,19 @@
         <v>112187</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>92629</v>
+        <v>93243</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>134312</v>
+        <v>134000</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01695631229736281</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01400028468188435</v>
+        <v>0.01409310398845161</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02030027647050152</v>
+        <v>0.02025312157048695</v>
       </c>
     </row>
     <row r="43">
@@ -10025,19 +10025,19 @@
         <v>25942</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13008</v>
+        <v>13974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45640</v>
+        <v>48104</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06534444302693436</v>
+        <v>0.06534444302693437</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03276417649168412</v>
+        <v>0.0351984778300257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1149602480669837</v>
+        <v>0.121165680134778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -10046,19 +10046,19 @@
         <v>25927</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14622</v>
+        <v>15011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41481</v>
+        <v>42671</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07341321956071423</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04140369456234614</v>
+        <v>0.04250497710653596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.117457270275454</v>
+        <v>0.1208252519311881</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -10067,19 +10067,19 @@
         <v>51869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34867</v>
+        <v>33349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77780</v>
+        <v>73932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06914301022315718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04647948787422879</v>
+        <v>0.04445490217957022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1036839348131954</v>
+        <v>0.0985534949370362</v>
       </c>
     </row>
     <row r="5">
@@ -10096,19 +10096,19 @@
         <v>98319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71866</v>
+        <v>72385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130158</v>
+        <v>133677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2476481810117615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1810177075413436</v>
+        <v>0.1823259226245866</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3278463846209669</v>
+        <v>0.3367104725621746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -10117,19 +10117,19 @@
         <v>54526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38917</v>
+        <v>38692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73457</v>
+        <v>75117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1543958716737959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1101975062076277</v>
+        <v>0.1095597217141515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2080004386920506</v>
+        <v>0.212701067786655</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -10138,19 +10138,19 @@
         <v>152845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>119407</v>
+        <v>122229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>191058</v>
+        <v>189055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2037474530959172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1591739930609212</v>
+        <v>0.1629348817977127</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.254686571462383</v>
+        <v>0.2520168350137764</v>
       </c>
     </row>
     <row r="6">
@@ -10167,19 +10167,19 @@
         <v>253030</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>219034</v>
+        <v>218666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>283586</v>
+        <v>285187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6373411823921264</v>
+        <v>0.6373411823921266</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5517092745943568</v>
+        <v>0.5507826753867978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7143073781259003</v>
+        <v>0.7183400911174007</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -10188,19 +10188,19 @@
         <v>247747</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>223110</v>
+        <v>223265</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>269713</v>
+        <v>269446</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7015181930792597</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6317539436892136</v>
+        <v>0.6321948039389533</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7637149014564827</v>
+        <v>0.7629586337213318</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -10209,19 +10209,19 @@
         <v>500778</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>462470</v>
+        <v>462913</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>545419</v>
+        <v>538874</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6675540264989374</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6164884263036375</v>
+        <v>0.6170791523224937</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7270631135643114</v>
+        <v>0.7183382765826436</v>
       </c>
     </row>
     <row r="7">
@@ -10238,19 +10238,19 @@
         <v>19718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8288</v>
+        <v>8657</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38635</v>
+        <v>40680</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04966619356917761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0208761152870226</v>
+        <v>0.02180616450452825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09731545632437169</v>
+        <v>0.1024660596135802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -10259,19 +10259,19 @@
         <v>24959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14701</v>
+        <v>13396</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41965</v>
+        <v>42602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07067271568623013</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04162586461946425</v>
+        <v>0.03793178190890567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1188261428947631</v>
+        <v>0.1206319979549401</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -10280,19 +10280,19 @@
         <v>44677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27636</v>
+        <v>27151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67308</v>
+        <v>68761</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05955551018198811</v>
+        <v>0.0595555101819881</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03683923049396703</v>
+        <v>0.03619320475026425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08972388286620749</v>
+        <v>0.09166050121623111</v>
       </c>
     </row>
     <row r="8">
@@ -10384,19 +10384,19 @@
         <v>48662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33010</v>
+        <v>33555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66378</v>
+        <v>69213</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1028274249107468</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06975236279394668</v>
+        <v>0.07090404038645223</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1402617223039376</v>
+        <v>0.1462530094574991</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -10405,19 +10405,19 @@
         <v>55665</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41448</v>
+        <v>40612</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70410</v>
+        <v>71439</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1128916638629443</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08405936700514026</v>
+        <v>0.08236287260319364</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.14279486944484</v>
+        <v>0.1448812552791382</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -10426,19 +10426,19 @@
         <v>104328</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84757</v>
+        <v>83260</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>128711</v>
+        <v>129555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1079628720509587</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0877107329112404</v>
+        <v>0.08616125030460206</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1331959248807761</v>
+        <v>0.1340692724455695</v>
       </c>
     </row>
     <row r="10">
@@ -10455,19 +10455,19 @@
         <v>191383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165825</v>
+        <v>166158</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220989</v>
+        <v>222141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4044065541306748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3504004751249989</v>
+        <v>0.3511053881212441</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4669677852674986</v>
+        <v>0.4694020994805539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>123</v>
@@ -10476,19 +10476,19 @@
         <v>133441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114868</v>
+        <v>113778</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156770</v>
+        <v>155803</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2706250016238126</v>
+        <v>0.2706250016238125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2329585681027899</v>
+        <v>0.2307462317071739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3179378549883988</v>
+        <v>0.3159750732640502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -10497,19 +10497,19 @@
         <v>324824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>290284</v>
+        <v>290831</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>364955</v>
+        <v>367334</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3361422676309526</v>
+        <v>0.3361422676309525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3003985243745345</v>
+        <v>0.3009648576795587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3776722675364247</v>
+        <v>0.3801343200151357</v>
       </c>
     </row>
     <row r="11">
@@ -10526,19 +10526,19 @@
         <v>228445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201681</v>
+        <v>200216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258919</v>
+        <v>254738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4827217676889169</v>
+        <v>0.482721767688917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.426168867527946</v>
+        <v>0.4230727678369465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5471160436236628</v>
+        <v>0.5382812825362535</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>260</v>
@@ -10547,19 +10547,19 @@
         <v>282219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259950</v>
+        <v>258750</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>305316</v>
+        <v>304414</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5723527056006277</v>
+        <v>0.5723527056006276</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5271903334437692</v>
+        <v>0.5247576922949817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6191950873038666</v>
+        <v>0.6173652666711326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>409</v>
@@ -10568,19 +10568,19 @@
         <v>510663</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>470109</v>
+        <v>468243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544951</v>
+        <v>547490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.528457460766107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4864896610749794</v>
+        <v>0.4845595257730597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5639398450333858</v>
+        <v>0.5665676504755192</v>
       </c>
     </row>
     <row r="12">
@@ -10597,19 +10597,19 @@
         <v>4753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13317</v>
+        <v>13539</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01004425326966143</v>
+        <v>0.01004425326966144</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0</v>
+        <v>0.00228205203649921</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02813994716496131</v>
+        <v>0.02860932351771223</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -10618,19 +10618,19 @@
         <v>21760</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13081</v>
+        <v>13465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32000</v>
+        <v>33398</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04413062891261559</v>
+        <v>0.0441306289126156</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02652940121009616</v>
+        <v>0.02730696148281676</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06489656220127518</v>
+        <v>0.06773183408555715</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -10639,19 +10639,19 @@
         <v>26514</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17127</v>
+        <v>17053</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39548</v>
+        <v>39934</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02743739955198181</v>
+        <v>0.02743739955198182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01772353310452391</v>
+        <v>0.0176475433129503</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0409258947525278</v>
+        <v>0.04132568416930337</v>
       </c>
     </row>
     <row r="13">
@@ -10743,19 +10743,19 @@
         <v>88814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72463</v>
+        <v>69757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109260</v>
+        <v>106393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1446540274663874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1180233240132294</v>
+        <v>0.1136163366954969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1779547293303269</v>
+        <v>0.1732864546189085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -10764,19 +10764,19 @@
         <v>93911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79393</v>
+        <v>78211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110129</v>
+        <v>109958</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1523079949669883</v>
+        <v>0.1523079949669882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1287614056217378</v>
+        <v>0.1268447975399111</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1786101702314488</v>
+        <v>0.1783324262087683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -10785,19 +10785,19 @@
         <v>182725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>158589</v>
+        <v>161325</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>208059</v>
+        <v>207328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1484891394522775</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1288752612130989</v>
+        <v>0.1310989207597983</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.169076280208531</v>
+        <v>0.1684823846064701</v>
       </c>
     </row>
     <row r="15">
@@ -10814,19 +10814,19 @@
         <v>258632</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>232892</v>
+        <v>233188</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>283574</v>
+        <v>283597</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.421242754966466</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.379319592217245</v>
+        <v>0.379801255830519</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4618666078525411</v>
+        <v>0.4619042259610461</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>219</v>
@@ -10835,19 +10835,19 @@
         <v>161573</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>142509</v>
+        <v>143749</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>179244</v>
+        <v>181383</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2620430100488156</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2311255373018067</v>
+        <v>0.2331359297602985</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2907035927358412</v>
+        <v>0.2941720094211981</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>447</v>
@@ -10856,19 +10856,19 @@
         <v>420205</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>385687</v>
+        <v>383522</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>451619</v>
+        <v>451093</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3414738181586738</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3134230078635041</v>
+        <v>0.3116635682620995</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3670017050716157</v>
+        <v>0.3665741690006938</v>
       </c>
     </row>
     <row r="16">
@@ -10885,19 +10885,19 @@
         <v>266528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>240033</v>
+        <v>242782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>292023</v>
+        <v>293142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4341032175671465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3909495961083641</v>
+        <v>0.3954270273632358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4756268901331454</v>
+        <v>0.4774501737069075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>474</v>
@@ -10906,19 +10906,19 @@
         <v>349550</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>328964</v>
+        <v>329572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>370418</v>
+        <v>371975</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5669106692990105</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5335239419857626</v>
+        <v>0.5345089243072493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.600754390660204</v>
+        <v>0.6032794695490733</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>708</v>
@@ -10927,19 +10927,19 @@
         <v>616079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>583111</v>
+        <v>585115</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>649349</v>
+        <v>650421</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5006479801249187</v>
+        <v>0.5006479801249188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4738571225624115</v>
+        <v>0.4754853233377654</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5276842149681668</v>
+        <v>0.5285556675235237</v>
       </c>
     </row>
     <row r="17">
@@ -10969,19 +10969,19 @@
         <v>11554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7064</v>
+        <v>6987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18596</v>
+        <v>18233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01873832568518566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01145713255716836</v>
+        <v>0.01133126182152226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03015958981347744</v>
+        <v>0.02957108716287792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -10990,19 +10990,19 @@
         <v>11554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6479</v>
+        <v>6888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18080</v>
+        <v>18801</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.009389062264129814</v>
+        <v>0.009389062264129815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005265297346703829</v>
+        <v>0.005597042522147895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0146927650467166</v>
+        <v>0.01527870863727475</v>
       </c>
     </row>
     <row r="18">
@@ -11094,19 +11094,19 @@
         <v>139751</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119103</v>
+        <v>119408</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162951</v>
+        <v>162845</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.202888577676304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1729116370602476</v>
+        <v>0.1733550062130463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2365689250089224</v>
+        <v>0.2364154423315162</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -11115,19 +11115,19 @@
         <v>120936</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106667</v>
+        <v>104351</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137932</v>
+        <v>138296</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1687113613937938</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1488053373142559</v>
+        <v>0.1455748845813798</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1924213450022331</v>
+        <v>0.1929298442108006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>319</v>
@@ -11136,19 +11136,19 @@
         <v>260687</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>234317</v>
+        <v>234133</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>289523</v>
+        <v>287688</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1854594051533248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.166699259148482</v>
+        <v>0.1665683398949346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2059741994071093</v>
+        <v>0.2046685738153989</v>
       </c>
     </row>
     <row r="20">
@@ -11165,19 +11165,19 @@
         <v>339970</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312968</v>
+        <v>317127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>366538</v>
+        <v>370490</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4935621923226465</v>
+        <v>0.4935621923226466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4543616375682508</v>
+        <v>0.4603990036456041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5321340302360362</v>
+        <v>0.5378711242304018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -11186,19 +11186,19 @@
         <v>252575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227397</v>
+        <v>230988</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272971</v>
+        <v>272413</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3523542049827935</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3172302351406952</v>
+        <v>0.3222397919922638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3808071591560144</v>
+        <v>0.3800296856564661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>709</v>
@@ -11207,19 +11207,19 @@
         <v>592544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>558436</v>
+        <v>558699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>627060</v>
+        <v>628011</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4215511088972117</v>
+        <v>0.4215511088972118</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3972855648999304</v>
+        <v>0.3974724871144215</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4461063667636472</v>
+        <v>0.4467826475796901</v>
       </c>
     </row>
     <row r="21">
@@ -11236,19 +11236,19 @@
         <v>207911</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>183179</v>
+        <v>185083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>232226</v>
+        <v>232582</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3018423758032505</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2659359388931292</v>
+        <v>0.2687008678828987</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3371414068858508</v>
+        <v>0.3376587142416215</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>521</v>
@@ -11257,19 +11257,19 @@
         <v>333322</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>312911</v>
+        <v>312265</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>355458</v>
+        <v>356599</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.465000745345096</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4365266114225866</v>
+        <v>0.4356252866736164</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4958816374530191</v>
+        <v>0.4974727364994689</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>722</v>
@@ -11278,19 +11278,19 @@
         <v>541234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>509623</v>
+        <v>506114</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>577170</v>
+        <v>573199</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3850473784519907</v>
+        <v>0.3850473784519908</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3625587460313194</v>
+        <v>0.3600626019041777</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4106130560171737</v>
+        <v>0.4077886070338456</v>
       </c>
     </row>
     <row r="22">
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6844</v>
+        <v>5580</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001706854197799028</v>
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009936002540534236</v>
+        <v>0.008100561146908051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -11328,19 +11328,19 @@
         <v>9988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5409</v>
+        <v>5860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15721</v>
+        <v>16189</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0139336882783166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00754552944024873</v>
+        <v>0.008175539667519315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02193193813604128</v>
+        <v>0.02258401463998805</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -11349,19 +11349,19 @@
         <v>11164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6598</v>
+        <v>6851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18068</v>
+        <v>18099</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.007942107497472721</v>
+        <v>0.007942107497472723</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004694278335589687</v>
+        <v>0.004873764832559331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01285387370818984</v>
+        <v>0.01287626008961181</v>
       </c>
     </row>
     <row r="23">
@@ -11453,19 +11453,19 @@
         <v>142957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>124599</v>
+        <v>123938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163581</v>
+        <v>162556</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2415931673827381</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2105682569233412</v>
+        <v>0.2094522057890566</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2764479441428308</v>
+        <v>0.2747148657724808</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>207</v>
@@ -11474,19 +11474,19 @@
         <v>125648</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111636</v>
+        <v>111386</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141648</v>
+        <v>141320</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2129061521330447</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1891639811473139</v>
+        <v>0.188739214534108</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2400172879117518</v>
+        <v>0.239462499218302</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>363</v>
@@ -11495,19 +11495,19 @@
         <v>268605</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>243414</v>
+        <v>245507</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>294729</v>
+        <v>296205</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2272686949395254</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2059547498827267</v>
+        <v>0.2077252702998363</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2493723549803047</v>
+        <v>0.2506212774545428</v>
       </c>
     </row>
     <row r="25">
@@ -11524,19 +11524,19 @@
         <v>300564</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>276332</v>
+        <v>275817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>323080</v>
+        <v>323112</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5079450331079995</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4669926438698385</v>
+        <v>0.4661231842806143</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5459958773042863</v>
+        <v>0.5460504352153007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>400</v>
@@ -11545,19 +11545,19 @@
         <v>239636</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>222917</v>
+        <v>221962</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>259332</v>
+        <v>257998</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4060549581020348</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3777240748657372</v>
+        <v>0.3761071662734634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4394283171336393</v>
+        <v>0.4371682284196333</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>731</v>
@@ -11566,19 +11566,19 @@
         <v>540200</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>511497</v>
+        <v>510417</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>570851</v>
+        <v>569311</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4570676044540924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4327810113351582</v>
+        <v>0.431867551534485</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4830014374127224</v>
+        <v>0.4816981815626584</v>
       </c>
     </row>
     <row r="26">
@@ -11595,19 +11595,19 @@
         <v>146361</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>128164</v>
+        <v>127562</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>168908</v>
+        <v>167542</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2473466179950517</v>
+        <v>0.2473466179950516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2165940463742782</v>
+        <v>0.2155762070067595</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2854494498097176</v>
+        <v>0.2831406684126255</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>352</v>
@@ -11616,19 +11616,19 @@
         <v>215808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>198650</v>
+        <v>198557</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>234106</v>
+        <v>234068</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3656788183351103</v>
+        <v>0.3656788183351104</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3366052973019703</v>
+        <v>0.3364482737352941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3966846229844811</v>
+        <v>0.3966192204250767</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>508</v>
@@ -11637,19 +11637,19 @@
         <v>362169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>334572</v>
+        <v>336910</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>389553</v>
+        <v>390637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3064341991937968</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2830838136589314</v>
+        <v>0.2850619153920853</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3296040866219273</v>
+        <v>0.3305212222746317</v>
       </c>
     </row>
     <row r="27">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6779</v>
+        <v>6316</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.003115181514210649</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01145604776653742</v>
+        <v>0.01067363706571928</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>14</v>
@@ -11687,19 +11687,19 @@
         <v>9065</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5238</v>
+        <v>5028</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14558</v>
+        <v>15064</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01536007142981012</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008876203008221898</v>
+        <v>0.008520429320927968</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02466759739141498</v>
+        <v>0.02552551393264575</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>16</v>
@@ -11708,19 +11708,19 @@
         <v>10908</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6611</v>
+        <v>6669</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17824</v>
+        <v>17742</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.009229501412585319</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005593302598239635</v>
+        <v>0.005642557792015995</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01508141389113546</v>
+        <v>0.01501131708077868</v>
       </c>
     </row>
     <row r="28">
@@ -11812,19 +11812,19 @@
         <v>93057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>80488</v>
+        <v>80485</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108750</v>
+        <v>108383</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2362536849212277</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2043418607470525</v>
+        <v>0.2043354244743776</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2760940533945293</v>
+        <v>0.2751614510365114</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>192</v>
@@ -11833,19 +11833,19 @@
         <v>102609</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89912</v>
+        <v>89814</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>114246</v>
+        <v>115249</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2463731467658274</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2158846558989133</v>
+        <v>0.2156508719890207</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.274312900070075</v>
+        <v>0.2767207486781836</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>322</v>
@@ -11854,19 +11854,19 @@
         <v>195667</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>176905</v>
+        <v>174492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>214989</v>
+        <v>214309</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2414544801270383</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2183018223314453</v>
+        <v>0.2153242736705186</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2652982207412599</v>
+        <v>0.264459801355891</v>
       </c>
     </row>
     <row r="30">
@@ -11883,19 +11883,19 @@
         <v>202741</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>185399</v>
+        <v>185558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>220421</v>
+        <v>219220</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5147192789625158</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4706908972012471</v>
+        <v>0.4710949589114137</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5596034934342294</v>
+        <v>0.556554800286032</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>364</v>
@@ -11904,19 +11904,19 @@
         <v>194636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>179053</v>
+        <v>178926</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>208502</v>
+        <v>209504</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4673363715897493</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4299186062088745</v>
+        <v>0.4296137752664498</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5006280088430024</v>
+        <v>0.5030351833550236</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>648</v>
@@ -11925,19 +11925,19 @@
         <v>397377</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>376760</v>
+        <v>374677</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>421179</v>
+        <v>418979</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4903673122980867</v>
+        <v>0.4903673122980866</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4649253151673028</v>
+        <v>0.4623551251710753</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5197381662815915</v>
+        <v>0.517023532866569</v>
       </c>
     </row>
     <row r="31">
@@ -11954,19 +11954,19 @@
         <v>93875</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>79563</v>
+        <v>80275</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109003</v>
+        <v>107714</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2383306432553748</v>
+        <v>0.2383306432553747</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2019955363512645</v>
+        <v>0.2038033132584224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2767368038849438</v>
+        <v>0.2734638727159124</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -11975,19 +11975,19 @@
         <v>116812</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>103419</v>
+        <v>104356</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>130160</v>
+        <v>130920</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2804738225462403</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2483175587818093</v>
+        <v>0.2505672386182461</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3125232355723434</v>
+        <v>0.3143478598829042</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>354</v>
@@ -11996,19 +11996,19 @@
         <v>210687</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>192065</v>
+        <v>191540</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>232828</v>
+        <v>231117</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2599897045947401</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.237009436183657</v>
+        <v>0.2363622433699043</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2873112409785519</v>
+        <v>0.2852000514332917</v>
       </c>
     </row>
     <row r="32">
@@ -12025,19 +12025,19 @@
         <v>4213</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1833</v>
+        <v>1605</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8798</v>
+        <v>8697</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01069639286088177</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004652438914648871</v>
+        <v>0.004073616952118107</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02233658230118993</v>
+        <v>0.02207903276826792</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -12046,19 +12046,19 @@
         <v>2423</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>613</v>
+        <v>549</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5572</v>
+        <v>6038</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005816659098183112</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001472787877832921</v>
+        <v>0.001318688908469197</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01337816074495263</v>
+        <v>0.0144982487741147</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -12067,19 +12067,19 @@
         <v>6636</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3150</v>
+        <v>3236</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11591</v>
+        <v>12083</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008188502980134909</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003887418541927274</v>
+        <v>0.00399275057672544</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01430366031078648</v>
+        <v>0.01491006289553011</v>
       </c>
     </row>
     <row r="33">
@@ -12171,19 +12171,19 @@
         <v>48120</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>38914</v>
+        <v>38749</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>60579</v>
+        <v>59087</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1638579031708979</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1325099890255831</v>
+        <v>0.1319479300382876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2062822737097744</v>
+        <v>0.2012038407057628</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>185</v>
@@ -12192,19 +12192,19 @@
         <v>93157</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>81235</v>
+        <v>81101</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>105359</v>
+        <v>105787</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2294532127419482</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2000900621271537</v>
+        <v>0.1997585017812759</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2595080359734051</v>
+        <v>0.2605633662342461</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>259</v>
@@ -12213,19 +12213,19 @@
         <v>141276</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>125246</v>
+        <v>126290</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>158828</v>
+        <v>157459</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2019210205514256</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1790091554328044</v>
+        <v>0.1805014702852463</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2270065549184754</v>
+        <v>0.2250498761045852</v>
       </c>
     </row>
     <row r="35">
@@ -12242,19 +12242,19 @@
         <v>159458</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>144393</v>
+        <v>146574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>173687</v>
+        <v>173732</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.5429885755077243</v>
+        <v>0.5429885755077244</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4916884567574331</v>
+        <v>0.4991160033720461</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5914394376646216</v>
+        <v>0.5915944693825875</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>377</v>
@@ -12263,19 +12263,19 @@
         <v>200014</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>184923</v>
+        <v>185379</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>214841</v>
+        <v>214105</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4926519256952041</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4554820914858509</v>
+        <v>0.4566059611900649</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5291719016852175</v>
+        <v>0.5273602712615851</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>617</v>
@@ -12284,19 +12284,19 @@
         <v>359472</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>339427</v>
+        <v>339186</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>379384</v>
+        <v>378481</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5137796301900539</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4851296182160083</v>
+        <v>0.4847853785238583</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.542238276522973</v>
+        <v>0.5409485938126636</v>
       </c>
     </row>
     <row r="36">
@@ -12313,19 +12313,19 @@
         <v>84561</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>71188</v>
+        <v>72233</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>97784</v>
+        <v>99078</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2879462157499998</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2424086766835507</v>
+        <v>0.2459689238866658</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3329756464323212</v>
+        <v>0.3373804101170474</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>199</v>
@@ -12334,19 +12334,19 @@
         <v>109613</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>96743</v>
+        <v>96834</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>124360</v>
+        <v>122742</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.269987972278445</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.238286403532572</v>
+        <v>0.2385118303823253</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3063104957391062</v>
+        <v>0.3023236915457547</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>318</v>
@@ -12355,19 +12355,19 @@
         <v>194174</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>178212</v>
+        <v>175918</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>213887</v>
+        <v>212241</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2775255510153439</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.25471111069249</v>
+        <v>0.2514329822778718</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3057005734780187</v>
+        <v>0.3033485704222336</v>
       </c>
     </row>
     <row r="37">
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5152</v>
+        <v>5696</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005207305571377915</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01754234690844498</v>
+        <v>0.01939596067850225</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -12405,19 +12405,19 @@
         <v>3210</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1363</v>
+        <v>1330</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6871</v>
+        <v>6845</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.00790688928440266</v>
+        <v>0.007906889284402658</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003357205938044037</v>
+        <v>0.003275421784740192</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01692406145682213</v>
+        <v>0.01685949879431755</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -12426,19 +12426,19 @@
         <v>4739</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2227</v>
+        <v>2188</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9545</v>
+        <v>10079</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.006773798243176675</v>
+        <v>0.006773798243176676</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.003182561200644368</v>
+        <v>0.003127588994273661</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01364258456860077</v>
+        <v>0.01440498612103737</v>
       </c>
     </row>
     <row r="38">
@@ -12530,19 +12530,19 @@
         <v>587304</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1701188478098171</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>965</v>
@@ -12551,19 +12551,19 @@
         <v>617853</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1719944818956029</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1578</v>
@@ -12572,19 +12572,19 @@
         <v>1205157</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="40">
@@ -12601,19 +12601,19 @@
         <v>1551067</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1493713</v>
+        <v>1491013</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1621291</v>
+        <v>1611025</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4492830929952469</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4326700960591776</v>
+        <v>0.431887755008998</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4696242809717013</v>
+        <v>0.4666505249932144</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1905</v>
@@ -12622,19 +12622,19 @@
         <v>1236402</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1186861</v>
+        <v>1185762</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1285483</v>
+        <v>1281722</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3441824359844478</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3303914460635307</v>
+        <v>0.3300857602621529</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3578453602416384</v>
+        <v>0.3567983235375682</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3465</v>
@@ -12643,19 +12643,19 @@
         <v>2787469</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2702954</v>
+        <v>2702328</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2868464</v>
+        <v>2864388</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3956886313342437</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3836915374434497</v>
+        <v>0.383602667985362</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4071861584348335</v>
+        <v>0.4066075722427059</v>
       </c>
     </row>
     <row r="41">
@@ -12672,19 +12672,19 @@
         <v>1280712</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1217235</v>
+        <v>1214414</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1345312</v>
+        <v>1340296</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3709718531334412</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3525852602293667</v>
+        <v>0.3517679579648882</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3896840206401907</v>
+        <v>0.3882311886993645</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2170</v>
@@ -12693,19 +12693,19 @@
         <v>1655073</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1601551</v>
+        <v>1604428</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1714828</v>
+        <v>1711848</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4607296480959466</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4458306168360801</v>
+        <v>0.4466315565117377</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4773640720279341</v>
+        <v>0.4765344691399999</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3272</v>
@@ -12714,19 +12714,19 @@
         <v>2935784</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2853627</v>
+        <v>2859958</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3026647</v>
+        <v>3027588</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4167424585483996</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4050799819281278</v>
+        <v>0.4059786590673917</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4296406741351033</v>
+        <v>0.429774164465134</v>
       </c>
     </row>
     <row r="42">
@@ -12743,19 +12743,19 @@
         <v>33233</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20468</v>
+        <v>18883</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>55976</v>
+        <v>56245</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009626206061494872</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.005928703235859346</v>
+        <v>0.005469638817876607</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01621417133324227</v>
+        <v>0.01629207841978537</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>89</v>
@@ -12764,19 +12764,19 @@
         <v>82958</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>65683</v>
+        <v>65036</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>104696</v>
+        <v>103929</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02309343402400281</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01828443118464559</v>
+        <v>0.01810429707406981</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02914478710538671</v>
+        <v>0.02893110998376791</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>110</v>
@@ -12785,19 +12785,19 @@
         <v>116191</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>93753</v>
+        <v>94158</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>145784</v>
+        <v>145295</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01649361158725156</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0133085039306046</v>
+        <v>0.01336594005975257</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02069449361305446</v>
+        <v>0.02062503235176935</v>
       </c>
     </row>
     <row r="43">
